--- a/BD - Skillet.xlsx
+++ b/BD - Skillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Prêmios</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Letras</t>
         </is>
       </c>
@@ -489,7 +494,10 @@
       <c r="E2" t="n">
         <v>55</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>To be more than a conqueror You have to learn to enjoy the pain If you want to survive the game You can try to defeat me (Defeat me) You don't know it's the pain that'll feed me (Feed me) And I'm gonna take back what you took me for (For) 'Cause I was born for this All the bones that you're breakin' (Breakin') You pretend that you're the one that can save me (Save me) Now I'm takin' it back, it was never yours (Never yours) I'm fightin' Fightin' for my focus Give the pain a purpose Light the fire inside Feel it come alive (Come alive) Show 'em what I'm made of Victory's for the brave ones Who never bowed a knee When it's do or die (Do or die-ie-ie) One more time Survivin' the game I can be unstoppable Gonna walk through Hell Gonna shake the walls Survive, survivin' the game (Survivin' the game) Livin' the impossible I'm the champion, indestructible (Survive) Survive, 'cause I'm survivin' the game I can be unstoppable Gonna be indestructible I can be unstoppable Gonna be indestructible All the liars around me Like the wolves of the walls that surround me In the face of the fear, I keep standin' tall 'Cause I will conquer this Knock me down like a lion (Lion) I was born to be demon defiant (Defiant) And I won't ever let this kingdom fall (Fall) I'll show 'em Show 'em what you're made of Victory's for the brave ones Never bow the knee 'Cause it's do or die (Do or die-ie-ie) One more time Survivin' the game I can be unstoppable Gonna walk through Hell Gonna shake the walls Survive, survivin' the game (Survivin' the game) Livin' the impossible I'm the champion, indestructible (Survive) Survive, 'cause I'm survivin' the game (Game) I am more than a conqueror The past behind me, life is ahead I'll take the way of the warrior I won't allow no fear to the death One more time Survivin' the game I can be unstoppable Gonna walk through Hell Gonna shake the walls Survive, survivin' the game (Survivin' the game) Livin' the impossible I'm the champion, indestructible (Survive) Survive, 'cause I'm survivin' the game (Survive) Survivin' the game (Survive) Survivin' the game Livin' the impossible I'm the champion, indestructible (Survive) Survive, 'cause I'm survivin' the game (Survive) I can be unstoppable Gonna be indestructible I can be unstoppable Gonna be indestructible</t>
         </is>
@@ -519,7 +527,10 @@
       <c r="E3" t="n">
         <v>51</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>I still got some life in me You can try to shake me I still got some fight in me But you can never break me I see the clouds around me start to darken Like searching eyes of serpents always watching Tell me I'm still breathin' (breathin') Tell me there's still feelin' (feeling) Resistance makes me stronger It makes me stronger Time for me to be defiant Cuz I won't be silencеd when I suffer Slinging shots at Goliath Gonna call down fire in rain and thundеr I see the world around me start to darken Resistance makes me stronger So make me stronger Whatever comes I'm Standing in the storm Like never before The pressure builds around me Let the winds surround me Whatever comes I'm not givin' up Fearless as lion Not afraid of dying I still got some life in me You can try to shake me I still got some fight in me But you can never break me Standing in the storm Like never before The pressure builds around me Let the winds surround me I'll stand in the storm I still got some life in me I'll stand in the storm I'll still got some fight in me I feel the voices underneath me calling I sink into the graveyard of the fallen Tell me that you hear them (hear them) Tell me you don't fear them (fear them) Resist a little longer Death before dishonor Nothing left to be decided Cause I won't be quiet when they threaten Through the hate and the violence Got truth on my side and love's my weapon I feel the voices underneath me calling Resist a little longer Death before dishonor Slinging shots at Goliath Slinging shots at Goliath Time for me to be defiant I still got some life in me You can try to shake me I still got some fight in me</t>
         </is>
@@ -549,7 +560,10 @@
       <c r="E4" t="n">
         <v>51</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Do-do-do-dominion Do-do-do-dominion Life has become a war Under our overlords I look them in the eye I keep crossing the bitter line Don't hold me I've never been nothing but strong and free The number one enemy 'Cause I'm not hypnotized I refuse to believe the lies Our rebellion has begun Dominion, dominion Under the fists of a powerful Dominion, dominion Don't let the empire take control Revolution from within Lеt the kingdom reign begin Dominion, dominion Do-do-do-dominion Do-do-do-dominion Do-do-do-dominion Do-do-do-dominion Colliding chaos Prе-programmed robots No dissent allowed at all A forty foot golden idol Not your place I'll never bow down To the power state Death will not dominate The fighters finally rise They refuse to believe the lies Our rebellion has begun Dominion, dominion Under the fists of a powerful Dominion, dominion Don't let the empire take control Revolution from within Let the kingdom reign begin Dominion, dominion Dominion, dominion Under the fists of a powerful Dominion, dominion Don't let the empire take control Revolution from within Let the kingdom reign begin Dominion, dominion Dominion, dominion Dominion, dominion Dominion, dominion Do-do-do-dominion Do-do-do-dominion Do-do-do-dominion Do-do-do-dominion</t>
         </is>
@@ -579,7 +593,10 @@
       <c r="E5" t="n">
         <v>49</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Days in darkness rolling by And how the years betray us And our dreams escape us The world I wanted turned to night Love became a shadow Where did the time go? Someone said this is all part of the plan But I don't understand Now that I walk through the valley of death You're the light to guide me When I'm lost and can't see I'm holding on with all the strength I can Say you won't forget me 'Cause sometimes I don't believe That I am not alone in the valley of death Love and laughter turn to tears What will come tomorrow? Is it joy or sorrow? Memories fading through the years Now I've got some smile lines We've had some good times I can't help wondering how much time is left 'Cause I'm not ready yet Now that I walk through the valley of death You're the light to guide me When I'm lost and can't see I'm holding on with all the strength I can Say you won't forget me 'Cause sometimes I don't believe That I am not alone in the valley of death When I can't carry on Enter into the unknown When I'm with you where I belong When the night's too hard to take And the starlight starts to fade Come and find me, I need to be saved Before it's too late Now that I walk through the valley of death You're the light to guide me When I'm lost and can't see I'm holding on with all the strength I can Say you won't forget me 'Cause sometimes I don't believe (I don't believe) Now that I walk through the valley of death (Through the valley of death) You're the light to guide me (To guide me) When I'm lost can't see (I can't see) I'm holding on with all the strength I can (With the strength that I can) Say you won't forget me (Forget me) 'Cause sometimes I don't believe (I don't believe) That I am not alone (I am not alone) That I am not alone (I am not alone) That I am not alone In the valley of death</t>
         </is>
@@ -609,7 +626,10 @@
       <c r="E6" t="n">
         <v>50</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>The demons come when I'm all alone Sometimes I can't tell Hell from home I'm falling Sinking deeper in misery When you're away from me 'Cause when you're here I got all I need (All I need) Fight off a thousand enemies (Enemies) I'm calling (Calling) I've been searching for something Heaven or nothing Fire up in the sky I'm gonna light it up Fire up in the sky Beyond incredible Take me away Into a higher place Where the blind men can see I'm finally free, I need a miracle Beyond incredible Rising above Where we can live for love 'Cause it's never enough You're lifting me up to a miracle Beyond incredible When I forget what I'm fighting for (Fighting for) I lose my way in the whims of war (Whims of war) So helpless Dare to reach for my destiny Hands come up empty Show me the way to the road back home (Road back home) I follow you to the great unknown (Great unknown) So reckless (Reckless) If it cost me my everything I'd give you anything Fire up in the sky I'm gonna light it up Fire up in the sky Beyond incredible Take me away Into a higher place Where the blind men can see I'm finally free, I need a miracle Beyond incredible Rising above Where we can live for love 'Cause it's never enough You're lifting me up to a miracle Beyond incredible I need a miracle Incredible I need a miracle Fire up in, fire up Incredible Fire up in, fire up I'm gonna light it up Beyond incredible Take me away Into a higher place Where the blind men can see I'm finally free, I need a miracle Beyond incredible Rising above Where we can live for love 'Cause it's never enough You're lifting me up to a miracle Beyond incredible I need a miracle Incredible I need a miracle Fire up in, fire up Incredible Fire up in, fire up I'm gonna light it up</t>
         </is>
@@ -639,7 +659,10 @@
       <c r="E7" t="n">
         <v>50</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Is there a place where I Could leave the world behind And say goodbye to every painful memory Where darkness ain't my destiny? This is my destiny This is my destiny Is this the life that you want? I don't ever wanna feel this way 'Cause this is the life that you got And no one else can ever take your place I can't (I can't) I won't (I won't) Go down this road It leaves me lost (I'm lost) Alone (Alone) How did I get so far from home? Is there a place where I Could leave the world behind And say goodbye to every painful memory Where darkness ain't my destiny? I'm running towards the light I'm free of all the rage I thought would never leave This darkness ain't my destiny No, I make my destiny No, I make my destiny This is my destiny Is this the life that you made? It's gettin' hard to tell who I am It's time, it's your life to change Even if you don't think you can I can't (I can't) I won't (I won't) Just lose myself I've got so far (So far) To go (To go) Just show me how to get back home Is there a place where I Could leave the world behind And say goodbye to every painful memory Where darkness ain't my destiny? I'm running towards the light I'm free of all the rage I thought would never leave This darkness ain't my destiny No, I make my destiny No, I make my destiny Pushing 'til I put the pain away, get away (Get away) Bracing for the weight but it cannot break me (Break me) Living like I'll never be afraid, not afraid (Not afraid) This is my destiny Pushing 'til I put the pain away, get away (Get away) Bracing for the weight but it cannot break me (Break me) Living like I'll never be afraid, not afraid (Not afraid) Is there a place where I Could leave the world behind And say goodbye to every painful memory (Memory) Where darkness ain't my destiny? I'm running towards the light I'm free of all the rage I thought would never leave This darkness ain't my destiny No, I make my destiny No, I make my destiny (I'm running towards the light) No, I make my destiny (Leave the past behind) No, I make my destiny This is my destiny</t>
         </is>
@@ -667,9 +690,12 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
-      </c>
-      <c r="F8" t="inlineStr">
+        <v>45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>When I open my eyes, I can't believe it How the world can look so different than we were dreamin' It's gettin' harder to say I'm undefeated When the best my heart can hope for is breakin' even Here and now, reachin' out In my hurt, I don't know how But I know I'm not alone I can face my darkest night 'Cause I trust You with my life I'm not afraid for You are my refuge When it's heavy on my chest You're the place I catch my breath You are the only one I hold onto Oh, 'cause You are my refuge I know how this ends I'm gonna make it Your Word is in my heart None could ever take it Here and now, hear us out Come and fill me with Your power Let me know I'm not alone I can face my darkest night 'Cause I trust You with my life I'm not afraid for You are my refuge When it's heavy on my chest You're the place I catch my breath You are the only one I hold onto Every day and darkest night (Night) I trust You at all times (Trust You at all times) I'm not afraid for You are my refuge And when I've got nothin' left (Got nothin' left) You're the place I find my rest (Place I find my rest) You are the only one that I run to Yes, You are my refuge You're my rest, You're my rock, You're my fortress You're my strength, You're my shield and You're my defense Nothing could ever take me from You Nothin's ever gonna take me from You I can face my darkest night 'Cause I trust You with my life I'm not afraid for You are my refuge When it's heavy on my chest You're the place I catch my breath You are the only one I hold onto Every day and darkest night (Darkest night) I trust You at all times (Trust You at all times) I'm not afraid for You are my refuge And when I've got nothin' left (Got nothin' left) You're the place I find my rest (Place I find my rest) You are the only one that I run to Yes, You are my refuge</t>
         </is>
@@ -697,9 +723,12 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
-      </c>
-      <c r="F9" t="inlineStr">
+        <v>44</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>(Freedom) You are a prisoner (Prisoner) Of what they wanted you to be Now you're a minister (Minister) Of a brand new reality Don't you wanna get away? Shut down all the voices All the white noises Drowning me in deeper waves I gotta get away They think they own you but they don't know You've broken free, better on your own You're on top of the world At the top of your lungs Come on, and shout your freedom Victory, His word has come alive inside New life begun Shout it out to the world At the top of your lungs Come on, and shout your freedom And now you're flying high (Flying high) You won't be held down by regrets You're not just gettin' by (Gettin' by) You're a warrior and proud of it You don't have to be afraid Hear how loud your voice is Shut out all the noises You don't have to be ashamed So never run away They think they own you but they don't know You've broken free, better on your own You're on top of the world At the top of your lungs</t>
         </is>
@@ -727,9 +756,12 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
-      </c>
-      <c r="F10" t="inlineStr">
+        <v>43</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Destroyer of the lies Destroyer of the lies Destroyer of the lies Destroyer of the lies I'm a warrior, the destroyer What a twisted web you weave Inside a maze of mirrors But you're afraid you're false, I was deceived You pull me in the fear, uh You better get behind me Break the ties that bind me Feel the fear rising No more of that, I've been had enough When my demons try to pull me under Into the person I don't wanna remember Destroyer of the lies See through your own disguise I'm the destroyer, destroyer I will not be your slave (I won't be your slave) It's over, it's over I will not walk away (I won't walk away) This is no time for the faint at heart It's time for war, war I'm the destroyer Facing down the enemy They gonna take the prisoners You could be caged, I threw away the key I'll burn it down to smoking embers And I will not be crucified Open up my blinded eyes Now before you realize There's no way I can ever surrender I feel the darkness coming to remind me Of who I was, I put that person behind me Destroyer of the lies See through your own disguise Destroyer of the lies See through your own disguise Your rebellious demise I'm the destroyer, destroyer I will not be your slave (I won't be your slave) It's over, it's over I will not walk away (I won't walk away) This is no time for the faint at heart It's time for war, war I'm the destroyer Destroyer Destroyer Destroyer Destroyer I'm the destroyer, destroyer I will not be your slave (I won't be your slave) It's over, it's over I will not walk away (I won't walk away) This is no time for the faint at heart It's time for war, war I'm the destroyer War, war I'm the destroyer (I won't walk away) This is no time for the faint at heart It's time for war, war I'm the destroyer I'm the destroyer I'm the destroyer</t>
         </is>
@@ -759,7 +791,10 @@
       <c r="E11" t="n">
         <v>43</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Tell me what you're thinking So I don't have to pretend 'Cause your mind's a million miles away I'm a song that goes on Way beyond the ozone You treat me like a stranger at the gates Why you gotta make it so hard? Why you gotta push me so far? Just another weekend Where we are barely speaking Hoping that the silence keeps us safe How did I get here? Was it something I said? When you said forever Is this what you meant? Is it wrong that I miss you? 'Cause you never left But the burden feels heavy And I'm just so stumped Is this forever or is this the end? Oh, oh Oh, oh Oh, oh It's better to be known here Than to be alone here Who will be the first to make a move? You got me on the defense 'Cause just beyond my pretense I'm afraid I'm disappointing you I've still got some hope in my heart But I don't even know where to start How did I get here? Was it something I said? When you said forever Is this what you meant? Is it wrong that I miss you? 'Cause you never left But the burden feels heavy And I'm just so stumped Is this forever or is this the end? It's never over (It's never over) It's never over (It's never over) It's not too late to start it all again It's never over (It's never over) Let's start it over (Let's start it over) It's not too late to start it all again How did I get here? Was it something I said? When you said forever Is this what you meant? Is it wrong that I miss you? 'Cause you never left But the burden feels heavy And I'm just so stumped How did I get here? Was it something I said? When you said forever Is this what you meant? Is it wrong that I miss you? 'Cause you never left But the burden feels heavy And I'm just so stumped (And I'm just so stumped) Is this forever or is this the end? Oh, oh Oh, oh Oh, oh</t>
         </is>
@@ -789,7 +824,10 @@
       <c r="E12" t="n">
         <v>46</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>It's past time, it's past time I take control, I'm cutting, cutting wires Fight or flight, dynamite With just a spark, I come, I come alight I don't wanna live in fear, no I won't waste another year, oh It's past time, the last time Never go back and cross the, cross the line I defy it, I deny it, striking, lighting I ignite all of the I pain take 'Cause I refuse to break, woah Get back when I ignite Forsaking not for me I know what I believe, woah Get back when I ignite Setting the world on fire Sitting and burning brightеr Setting the world on fire Gеt back when I ignite All of the pain I take 'Cause I refuse to break, woah Get back when I ignite Ignite Ignite Ignite A hostage, exhausted I'm riding on a razor, razor's edge The countdown begins now This fire inside is burning, burning out I don't wanna live in fear, no Detonating, stand clear, oh I defy it, I deny it, striking, lighting I ignite all of the I pain take 'Cause I refuse to break, woah Get back when I ignite Forsaking not for me I know what I believe, woah Get back when I ignite Setting the world on fire Sitting and burning brighter Setting the world on fire Get back when I ignite All of the pain I take 'Cause I refuse to break, woah Get back when I ignite Detonating, stand clear Detonating, stand clear I ignite all of the I pain take 'Cause I refuse to break, woah Get back when I ignite Forsaking not for me I know what I believe, woah Get back when I ignite Setting the world on fire Sitting and burning brighter Setting the world on fire Get back when I ignite All of the pain I take 'Cause I refuse to break, woah Get back when I ignite Ignite Ignite Ignite Get back when I ignite</t>
         </is>
@@ -819,7 +857,10 @@
       <c r="E13" t="n">
         <v>43</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Verily, verily, I will tell thee Nothing but the truth Listen to the preacher Warning you about the deceiver I am the way, the truth, the life, life Nations rage, wars and plagues Lords of chaos are set in place Raising up kingdoms small and great Gonna make 'em all bow, power on display Your idols will be consumed with fire, fire Look up in the sky Look up in the sky Look up in the sky The storm is rising I am the earthquake Armies shake at my name I come for justice Recognize your King Do you want peace or war when Heaven's force comes riding on a white horse? Your self-proclaiming exaltation's coming to an end Get up off my throne before I'm riding down to judge and wage war The armies of Heaven at my command, command Enemies, glory thieves Kiss the Son or get under my feet Don't recognize me, you suppressed the truth You say, "Lord, Lord, " but I don't recognize you My kingdom is at hand, at hand Look up in the sky Look up in the sky Look up in the sky The storm is rising I am the earthquake Armies shake at my name I come for justice Recognize your King Do you want peace or war when Heaven's force comes riding on a white horse? I am the earthquake Armies shake at my name I come for justice Recognize your King Do you want peace or war when Heaven's force comes riding on a white horse? I'm gonna strike you down With the sword of my mouth Why did you live in doubt? Didn't you hear the words of the prophet? You should have known I got the words of God in my mouth Gonna strike you down (I'm gonna strike you down) With the sword of my mouth (With the sword of my mouth) Look up in the sky I am the earthquake Armies shake at my name I come for justice Recognize your King Do you want peace or war when Heaven's force comes riding on a white horse? I am the earthquake Armies shake at my name I come for justice Recognize your King Do you want peace or war when Heaven's force comes riding on a white horse? Gonna strike you down (I'm gonna strike you down) With the sword of my mouth (With the sword of my mouth) Didn't you hear the words of the prophet? You should have known I got the words of God in my mouth</t>
         </is>
@@ -847,9 +888,12 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>72</v>
-      </c>
-      <c r="F14" t="inlineStr">
+        <v>73</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>Target on my back Lone survivor lasts They got me in their sights No surrender no Trigger fingers go Living the dangerous life Hey, hey, hey Everyday when I wake I'm trying to get up, they're knocking me down Chewing me up, spitting me out Hey, hey, hey When I need to be saved You're making me strong, you're making me stand Never will fall, never will end Shot like a rocket up into the sky Nothing could stop me tonight You make me feel invincible Earthquake, powerful Just like a tidal wave You make me brave You're my titanium Fight song, raising up Like a roar of victory in a stadium Who can touch me cause I'm I'm made of fire Who can stop me tonight I'm hard wired You make me feel invincible I feel, I feel it Invincible I feel, I feel it Invincible Here we go again I will not give in I've got a reason to fight Every day we choose We might win or lose This is the dangerous life Hey, hey, hey Everyday when I wake They say that I'm gone; they say that they've won The bell has been rung, it's over and done Hey, hey, hey When I need to be saved They counting me out, but this is my round You in my corner; look at me now Shot like a rocket up into the sky Nothing could stop me tonight You make me feel invincible Earthquake, powerful Just like a tidal wave You make me brave You're my titanium Fight song, raising up Like a roar of victory in a stadium Who can touch me cause I'm I'm made of fire Who can stop me tonight I'm hard wired You make me feel invincible I feel, I feel it Invincible I feel, I feel it Invincible You make me feel invincible You make me feel invincible Shot like a rocket up into the sky Not gonna stop Invincible You make me feel invincible Earthquake, powerful Just like a tidal wave You make me brave You're my titanium Fight song, raising up Like a roar of victory in a stadium Who can touch me cause I'm I'm made of fire Who can stop me tonight I'm hard wired You make me feel invincible I feel, I feel it Invincible I feel, I feel it Invincible | | |</t>
         </is>
@@ -879,7 +923,10 @@
       <c r="E15" t="n">
         <v>59</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back Cold,black,let's tie this coffin Cause you all try to keep me down How it feels to be forgotten But you'll never forget me now Enemies, Clawing at my eyes that Scratch and bleed , Just to stay alive, yeah The zombies come at night They'll never catch me They'll never catch me B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back Light it up, Light it up, Now I'm burnin Feel the rush , Feel the rush of adrenaline We are Young We are Strong We will rise Cause I'm back, back back from the dead tonight To the floor, To the floor, Hit the red line Fly it high , fly it high at the speed of light For the love , For the light , For the fight Cause I'm back, back back from the dead tonight Break the skin, Spread like poison Die slowly when we all attack How it feels to be the broken You took a pice now I'm biting back Enemies, Clawing at my eyes that Scratch and bleed , Just to saty alive, yeah The zombies come at night They'll never catch me They'll never catch me B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back Light it up, Light it up, Now I'm burnin Feel the rush , Feel the rush of adrenaline We are Young We are Strong We will rise Cause I'm back, back back from the dead tonight To the floor, To the floor, Hit the red line Fly it high , Fly it high at the speed of light For the love , For the light , For the fight Cause I'm back, back back from the dead tonight Deep down, For the count Don't you dare cont me out Never break, Never bow Never beg, Not a doubt The zombies come at night They'll never catch me They'll never catch me B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back Light it up, Light it up, Now I'm burnin Feel the rush , Feel the rush of adrenaline We are Young We are Strong We will rise Cause I'm back, back back from the dead tonight To the floor, To the floor, Hit the red line Fly it high , Fly it high at the speed of light For the love , For the light , For the fight Cause I'm back, back back from the dead tonight B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back B-b-b-b-b-back-back-back from the dead tonight</t>
         </is>
@@ -909,7 +956,10 @@
       <c r="E16" t="n">
         <v>52</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>You spoke a word and life began Told oceans where to start and where to end You set in motion time and space But still you come and you call to me by name But still you come and you call to me by name If you can hold the stars in place You can hold my heart the same Whenever I fall away Whenever I start to break So here I am, lifting up my heart To the one who holds the stars The deepest depths, the darkest nights Can't separate, can't keep me from your sight I get so lost, forget my way But still you love and you don't forget my name If you can hold the stars in place You can hold my heart the same Whenever I fall away Whenever I start to break So here I am, lifting up my heart If you can calm the raging sea You can calm the storm in me You're never too far away You never show up too late So here I am, lifting up my heart To the one who holds the stars Your love has called my name What do I have to fear? What do I have to fear? Your love has called my name What do I have to fear? What do I have to fear? If you can hold the stars in place You can hold my heart the same Whenever I fall away Whenever I start to break So here I am, lifting up my heart (lifting up my heart) If you can calm the raging sea You can calm the storm in me You're never too far away You never show up too late So here I am, lifting up my heart To the one who holds the stars You're the one who holds the stars</t>
         </is>
@@ -939,7 +989,10 @@
       <c r="E17" t="n">
         <v>56</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>In a grave of roses While the night is closing in My soul is so cold But I want to live again I know you'll come to me I wait in misery I want to fight for this Save me from this darkness I reach for the light I want to live my life The choice is mine, I've made up my mind Now, I'm free to start again The way I want to live (to live) and breathe (and breathe) The way I want that's right for me I may not know nothing else But I know this, I want to live All I ever needed was a reason to believe You help me hold on You ignite the fire in me You always come for me You know just what I need Don't make me wait for this Save me from this darkness I reach for the light I want to live my life The choice is mine, I've made up my mind Now, I'm free to start again The way I want to live (to live) and breathe (and breathe) The way I want that's right for me I may not know nothing else But I know this, I want to live I'm breathing, still breathing But I can't fight this fear alone This feeling is killing slow But now I know I want to live my life The choice is mine, I've made up my mind Now, I'm free to start again The way I want to live (to live) and breathe (and breathe) The way I want that's right for me I may not know nothing else But I know this, I want to live I want to live I know this, I want to live</t>
         </is>
@@ -969,7 +1022,10 @@
       <c r="E18" t="n">
         <v>56</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>I'm undefeated Hands on my neck, foot on my back Closing in from every side Bleeding me dry, I'm fading fast Left for dead but I will rise up on my own I could make it alone I got all that I need to survive (All that I need to survive) Through the sweat and the blood I know what I'm made of It's the hunger that keeps me alive This time, I'm coming like a hurricane This time I came to fight for the love of the game Unstoppable That's why I, I'm undefeated Off the leash, out of the cage, an animal That's why I, I'm undefeated I, I, I know I can beat it Won't give up cause I believe it Fight for the love of the game, unstoppable That's why I, I'm undefeated Here at the edge losing my ground Stare into the great divide Pushing me over, pulling me down Almost dead, but I will rise up on my own No, I'm never alone And it's all that I need to survive (All that I need to survive) Through the sweat and the blood If I fall, I'll get up It's the hunger that keeps me alive This time, I'm coming like a hurricane This time I came to fight for the love of the game Unstoppable That's why I, I'm undefeated Off the leash, out of the cage, an animal That's why I, I'm undefeated I, I, I know I can beat it Won't give up cause I believe it Fight for the love of the game, unstoppable That's why I, I'm undefeated All the strength that I have All the life that's left in me I will give every breath To be everything I can be I, I, I'm undefeated I, I, I'm undefeated I came to fight for the love of the game Unstoppable That's why I, I'm undefeated Off the leash, out of the cage, an animal That's why I, I'm undefeated I, I, I know I can beat it Won't give up cause I believe it Fight for the love of the game, unstoppable That's why I, I'm undefeated That's why I, I'm undefeated</t>
         </is>
@@ -999,7 +1055,10 @@
       <c r="E19" t="n">
         <v>47</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>[Verse 1] I testify, this is not a secret meant to keep Your love, like fire, spreading from my heart straight to my feet [Pre-Chorus 1] And when I was dead, you gave me new life I'm lifting you up with all of my might I don't care who's to the left, to the right You're all that's on my mind Don't really care what they say, what they think I feel so alive [Chorus] I'm unashamed, I'm wide awake Not gonna hide, can't deny you're my everything Here's to the free who still believe You're the star of the show that we came to see With all my heart, all my life, gonna live it loud I wanna make, make you famous Light up the night, let it shine, never burning out I wanna make, make you famous [Post-Chorus] Fame, fame, fame fame, f-famous Fame, fame, fame fame, f-famous [Verse 2] Neon lights, my eyes are blinded by your glow Yeah, you are mine, I know who I am cause of who I know [Pre-Chorus 2] I'm no longer dead, you gave me new life I'm lifting you up with all of my might I don't care who's to the left, to the right You're all that's on my mind Don't really care what they say, what they think I feel so alive [Chorus] I'm unashamed, I'm wide awake Not gonna hide, can't deny you're my everything Here's to the free who still believe You're the star of the show that we came to see With all my heart, all my life, gonna live it loud I wanna make, make you famous Light up the night, let it shine, never burning out I wanna make, make you famous [Bridge] Shh, shh, you wanna know a secret? Shh, shh, cause I can't keep it Shh, shh, you wanna know a secret? Shh, shh, cause I can't keep it Take you worldwide, make, make you famous 'Cross the headlines, make, make you famous From Nyc to Texas to the coast of La From way down under, under London They'll remember your name [Chorus] I'm unashamed, I'm wide awake Not gonna hide, can't deny you're my everything Here's to the free who still believe You're the star of the show that we came to see With all my heart, all my life, gonna live it loud I wanna make, make you famous Light up the night, let it shine, never burning out I wanna make, make you famous With all my heart, all my life, gonna live it loud Fame, fame, fame fame, f-famous Light up the night, let it shine, never burning out Fame, fame, fame fame, f-famous</t>
         </is>
@@ -1027,9 +1086,12 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>52</v>
-      </c>
-      <c r="F20" t="inlineStr">
+        <v>53</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>[Verse 1] Today we live, today we breathe Today we know that we are strong when we are weak Today we trust, we overcome Take every chain that kept us slaves and throw em' off [Pre-Chorus] We're not waiting for permission We defy our inhibition Like our middle name is "fearless" Unafraid [Chorus] If we're gonna fly, we fly like eagles Arms out wide If we're gonna fear, we fear no evil We will rise By your power, we will go By your spirit, we are bold If we're gonna stand, we stand as giants If we're gonna walk, we walk as lions We walk as lions [Verse 2] Today is ours, it's always been Before we face the fight We know who's gonna win We live by faith and not by sight We don't want safe and quiet We don't wanna run and hide [Pre-Chorus 2] This is not an intermission It's our time, not gonna miss it You've already called us fearless Unafraid [Chorus] If we're gonna fly, we fly like eagles Arms out wide If we're gonna fear, we fear no evil We will rise By your power, we will go By your spirit, we are bold If we're gonna stand, we stand as giants If we're gonna walk, we walk as lions We walk as lions [Bridge] Oh, everywhere we go The battle has been won We know you've gone before us So, we take it hard in faith With every step we take We know we'll rise victorious [Chorus] If we're gonna fly, we fly like eagles Arms out wide If we're gonna fear, we fear no evil We will rise By your power, we will go By your spirit, we are bold If we're gonna stand, we stand as giants If we're gonna walk, we walk as lions We walk as lions</t>
         </is>
@@ -1059,7 +1121,10 @@
       <c r="E21" t="n">
         <v>49</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>I've been down in the dirt, lost for so long And pushed around beaten down Got nothing left to lose, all hope is gone Got buried deep underground Oh, can you see me? Oh, can you hear me? Can you hear me screaming for you? I'm afraid I'm gonna die out here I can't save, I can't save myself Get me out, get me out of Hell I'm suffocating waiting for you Cause the angels don't fly down here I need you because no one else Can get me out, get me out of Hell I can't trust anyone, all that I got Is another scarred, broken heart I've been stabbed in the back, the bleeding won't stop Just another cut in the dark Oh, can you see me? Oh, can you hear me? Can you hear me screaming for you? I'm afraid I'm gonna die out here I can't save, I can't save myself Get me out, get me out of Hell I'm suffocating waiting for you Cause the angels don't fly down here I need you because no one else Can get me out, get me out of Hell Can you hear me screaming for you? I'm afraid I'm gonna die out here I can't save, I can't save myself Get me out, get me out of Hell I'm suffocating waiting for you Cause the angels don't fly down here I need you because no one else Can get me out, get me out of Hell</t>
         </is>
@@ -1087,9 +1152,12 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
-      </c>
-      <c r="F22" t="inlineStr">
+        <v>52</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>[Verse 1] Do you ever wish that you weren't a prisoner? Do you feel like you're done? All the dreams you had are hard to remember Well, you're not the only one [Pre-Chorus] Well it's over, it's over, it's over I won't be pushed around Move over, move over, move over Get back or just get out Set this plane up in flames It's over, it's over, it's over It's time to burn it down [Chorus] This one goes to the castaways Who break their backs slaving every day All these things I can do without Gotta burn it down, burn it down Burn it down, burn it down Burn it down, burn it down Burn it down, burn it down [Verse 2] Do you ever feel your colors are fading Like your world might combust Do the voices in your head make you crazy When they're the only ones you trust [Pre-Chorus] Well it's over, it's over, it's over I won't be pushed around Move over, move over, move over Get back or just get out Set this plane up in flames It's over, it's over, it's over It's time to burn it down [Chorus] This one goes to the castaways Who break their backs slaving every day All these things I can do without Gotta burn it down, burn it down Burn it down, burn it down Burn it down, burn it down [Bridge] It's over, it's over, it's over Move over, move over, move over It's over, it's over, it's over I won't be pushed around Move over, move over, move over Burn it down, burn it down [Chorus] This one goes to the castaways Who break their backs slaving every day All these things I can do without Gotta burn it down, burn it down [Outro] Burn it down, burn it down (I won't be pushed around) Burn it down, burn it down (Get back or just get out) Burn it down, burn it down (I won't be pushed around) Burn it down, burn it down (Get back or just get out) Burn it down, burn it down</t>
         </is>
@@ -1119,7 +1187,10 @@
       <c r="E23" t="n">
         <v>46</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>[verse 1] You burn so bright, I see stars The way that you laugh, It's like a heavenly choir You made me feel invincible When you're with me, I can take on the world [chorus] You were a comet and I lost it Watching for comets, will I see you again? You burn so bright, You burn me up tonight [verse 2] Say my name, I'll be there I didn't know, You should've said that you cared It's not too late for broken hearts Take my hand, make a wish on a star [chorus] You were a comet and I lost it Watching for comets, will I see you again? Everybody needs someone But they can't feel like this How can I breathe with this burning in my chest? You were gone so fast, I want you back You burn so bright, You burn me up tonight You were a comet and I lost it (time to spread my wings and fly) Watching for comets, will I see you again? (time to fly away so high) [bridge] Now I see you, I'm frozen in time All your colors burst into life I don't dare close my eyes Cause a love like this Happens once in a lifetime [chorus] You were a comet and I lost it Watching for comets, will I see you again? Everybody needs someone But they can't feel like this How can I breathe with this burning in my chest? You were gone so fast, I want you back You were a comet and I lost it (time to spread my wings and fly) Watching for comets, will I see you again? (time to fly away so high) You burn so bright, You burn me up tonight</t>
         </is>
@@ -1149,7 +1220,10 @@
       <c r="E24" t="n">
         <v>46</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>[Verse 1] Streets filled with blood, black and red Dreams and hearts that once knew love are cold and dead [Pre-Chorus 1] Breathing rust, it's come to this We burnt to dust, an apocalypse But we could live again if we can find ourselves [Chorus] We are the saviors of the world And I will not be ruled We are kings and conquerors And I won't bow to you They will not control us anymore We will not conform, no, anymore We are the saviors, the saviors The saviors of the world [Verse 2] Cities will burn, the end is come Paradise is lost, we wonder what we've done [Pre-Chorus 2] Riches rust The iron fist crashes down on the powerless But hope could live again if we can find ourselves [Chorus] We are the saviors of the world And I will not be ruled We are kings and conquerors And I won't bow to you They will not control us anymore We will not conform, no, anymore We are the saviors, the saviors The saviors of the world [Chorus] We are the saviors of the world And I will not be ruled We are kings and conquerors And I won't bow to you They will not control us anymore We will not conform, no, anymore We are the saviors, the saviors The saviors of the world</t>
         </is>
@@ -1179,7 +1253,10 @@
       <c r="E25" t="n">
         <v>69</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>I am a nation, I am a million faces Formed together, made for elevation I am a soldier, I won't surrender Faith is like a fire that never burns to embers (Who's gonna stand up, who's gonna fight?) The voice of the unheard (Who's gonna break these chains and lies?) Love is the answer I gotta speak it, believe it, that's how I feel inside I, I, can't, can't sit here quiet You can take my heart, you can take my breath When you pry it from my cold, dead chest This is how we rise up Heavy as a hurricane, louder than a freight train This is how we rise up Heart is beating faster, feels like thunder Magic, static, call me a fanatic It's our world, they can never have it This is how we rise up It's our resistance, you can't resist us Hey can you hear me? Hey, are you listening? Sleeping in the shadows, could be making history Walk through the fire, walk on the water Used to be a slave, but now you are a conqueror They can take my heart They can take my breath When they pry it from my cold, dead chest This is how we rise up Heavy as a hurricane, louder than a freight train This is how we rise up Heart is beating faster, feels like thunder Magic, static, call me a fanatic It's our world, they can never have it This is how we rise up It's our resistance, you can't resist us Up, up, up, up, up We're rising up, up, up, up, up The voice of the unheard Rising up, up, up, up, up We're rising up, up, up, up, up Love is the answer Rising up, up, up, up, up We're rising up, up, up, up, up Love is the answer This is how we rise up It's our resistance, you can't resist us This is how we rise up Heavy as a hurricane, louder than a freight train This is how we rise up Heart is beating faster, feels like thunder Magic, static, call me a fanatic It's our world, they can never have it This is how we rise up It's our resistance, you can't resist us</t>
         </is>
@@ -1207,9 +1284,12 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>61</v>
-      </c>
-      <c r="F26" t="inlineStr">
+        <v>62</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>All I see is Shattered pieces I can't keep it hidden like a secret I can't look away! From all this pain in a world we made! Everyday you need A bulletproof vest To save yourself from what you could never guess! Am I safe today? When I step outside in the wars we wage! Our future's here and now Here comes the countdown! [Chorus] Sound it off, this is the call! Rise and revolution! It's our time to change it all Rise and revolution! Unite and fight, to make a better life! Everybody one for all Sound off, this is the call, tonight, we rise! Rise Tonight, we rise Rise Tonight, we rise! Like a hand grenade Thrown in a hurricane Spinning in chaos Trying to escape the flame Yesterday is gone! Faster than the blast of a car bomb! And when the scars heal The pain passes As hope burns, we rise from the ashes! Darkness fades away! And a light shines on a brave new day! Our future's here and now Here comes the countdown! [Chorus] Sound it off, this is the call! Rise and revolution! It's our time to change it all Rise and revolution! Unite and fight, to make a better life! Everybody one for all Sound off, this is the call, tonight, we rise! Rise Tonight, we rise Rise Tonight, we rise! In a world gone mad In a place so sad! Sometimes it's crazy To fight for what you believe! But you can't give up If you wanna keep what you love! (Keep what you love) (Keep what you love) (Keep what you love) (Keep what you love) Never give up, no! Rise Rise and revolution Rise Rise and revolution Everybody one for all Sound off, this is the call! Rise Like we're alive Tonight, we rise Make a better life Tonight, we rise! Rise, rise, rise and revolution Rise, rise, rise and revolution Rise *phone rings* Operator: 911? Woman: There's a guy here with a gun! Operator: Ma'am? Ma'am? Woman: Kids, get under the table! Kids get under the table! *News reporter*: We are getting reports from all around the globe, showing the highest unemployment rates since the end of World War Ii. Many are losing their jobs, their homes, and in many cases, their hope *Upset parent*: You are such a failure! What is wrong with you? You can't do anything right! I wish you had never been born!</t>
         </is>
@@ -1239,7 +1319,10 @@
       <c r="E27" t="n">
         <v>55</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>If you're sick If you're sick If you're sick If you're sick of it If you're sick If you're sick If you're sick of it! When everything you do Don't thing a matter Your trouble is not usual World is getting blacker When every time you fail Has no answer Every empty promise made His own reminder No one can make this better Take control it's now or never! Are you sick of it? Raise your hands - get rid of it! While there's a fighting chance Are you over it? Bored to death? Have you had enough regret? Take a stand, raise your hands If you're sick of it! If you're sick of If you're sick of If you're sick of it! Sick of it! If you' re sick of it! Every single day I chase my own tale Like a bad inside of me Gotta gotta gotta get away I'm running out of time For me to break this I'm done to feeling like I never gonna make this No one can make this better Take control it's now or never! Are you sick of it? Raise your hands - get rid of it! While there's a fighting chance Are you over it? Bored to death? Have you had enough regret? Take a stand, raise your hands If you're sick of it! If you're sick of If you're sick of If you're sick of it! Sick of it! If you' re sick of it! I'm tired of it I'm over it I'm bored to death Gonna face this I'M SICK OF IT! Raise your hands If you're sick If you're sick If you're sick of it Raise your hands If you're sick If you're sick of it Sick of it! Raise your hands - get rid of it! While there's a fighting chance Are you over it? Bored to death? Have you had enough regret? Take a stand, raise your hands If you're sick of it! Are you sick of it? If you're sick If you're sick If you're sick of it Get rid of it! If you're sick If you're sick of it Are you over it? Bored to death? Have you had enough regret? Take a stand, raise your hands Are you sick of it? If you're sick If you're sick If you're sick of it Are you sick of it? If you're sick If you're sick If you're sick of it Are you sick of it? If you're sick If you're sick If you're sick of it If you're sick of it If you're sick If you're sick If you're sick of it</t>
         </is>
@@ -1267,9 +1350,12 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
-      </c>
-      <c r="F28" t="inlineStr">
+        <v>40</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>I'm sitting with my heart out on the tableI'm doing a face to face with GodHe picked up my heart and said,What you want me to do with this?I just blinked my eyes no smile, no laugh, no tearsNo shrugging my shouldersIt crossed my mind, Yeah I got an ideaYou could take my heart and put it in a padlocked boxWhat if they grab too hard or smash it, or throw it downI'm scared of being hurt, I just want to live, live a happy life!You want to, you want toSoak my heart in gasolineLight a match and consume meSoak my pride in gasoline all of you and none of meI was reminded my heart reeks of gasolineIt bears the mark of a slave committed to lifeAnyone who wants itWill have to grab it from a real big God try to touch me,You'll be consumed, youÃ­ll be consumed I want to, I want toI'm sitting here with my heart out on the tableNext to a bloody mess that was once a man's heartI looked at God and said, What do you want me to do with this?He said, Already done, already done, that heart was Jesus</t>
         </is>
@@ -1299,7 +1385,10 @@
       <c r="E29" t="n">
         <v>66</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Intro Death surrounds My heartbeat's slowing down I won't take this world's abuse I won't give up, I refuse This is how it feels when you're bent and broken This is how it feels when your dignity's stolen When everything you love is leaving You hold on to what you believe in (The last thing I heard was you whispering goodbye And then I heard you flat line) No, not gonna die tonight We're gonna stand and fight forever (Don't close your eyes) No, not gonna die tonight We're gonna fight for us together No, we're not gonna die tonight Break their hold 'Cause I won't be controlled They can't keep their chains on me When the truth has set me free This is how it feels when you take your life back This is how it feels when you finally fight back When life pushes me I push harder What doesn't kill me makes me stronger (The last thing I heard was you whispering goodbye And then I heard you flat line) No, not gonna die tonight We're gonna stand and fight forever (Don't close your eyes) No, not gonna die tonight We're gonna fight for us together No, we're not gonna die tonight Don't you give up on me You're everything I need This is how it feels when you take your life back This is how it feels when you fight back No, not gonna die tonight We're gonna stand and fight forever (Don't close your eyes) No, not gonna die tonight We're gonna fight for us together No, we're not gonna die tonight No, we're not gonna die tonight Not gonna die (Not gonna die) Not gonna die (Not gonna die) Not gonna die tonight</t>
         </is>
@@ -1329,7 +1418,10 @@
       <c r="E30" t="n">
         <v>53</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Psycho, cho, cho,cho Psycho, here we go! You push me till I break and the anger turns to rage. Why can't you just leave me alone? Got you finger on the trigger you think that you're the winner but you're gonna get kicked off of your throne, no!(no! no!) You think you're gonna hurt me get ready o get dirty you created this beast inside! pull this noose tighter and lift a little higher 'cause you're killing me slow I ain't ready to die! (killing me slow but I ain't ready to die!) Tonight, get ready for a fight! So now you know it's time, to ride a circus for a psycho! Round and round we go lookout below 'cause I want off this, I want off this! Circus for a psycho!(psycho, cho, cho, cho) Circus for a psycho! (psycho, here we go!)(2x) Everybody down gonna burn it to the ground can't keep this beast inside! Never again! Never again! you're killing me slow, I ain't ready to die! (killing me slow but I ain't ready to die!) Tonight, get ready for a fight! So now you know it's time, to ride a circus for a psycho! Round and round we go lookout below 'cause I want off this, I want off this! Circus for a psycho!(psycho, cho, cho, cho) Circus for a psycho!(psycho, here we go!) You think you're gonna hurt me get ready o get dirty gonna burn it to the ground Tonight, get ready for a fight! So now you know it's time, to ride a circus for a psycho! Round and round we go lookout below it's time to ride a circus for a psycho! Never again! Never again! You're killing me slow but I ain't ready to die! Round and round we go lookout below 'cause I want off this, I want off this! Circus for a psycho!(psycho, cho, cho, cho) Circus for a psycho!(psycho, here we go!) Circus for a psycho!</t>
         </is>
@@ -1359,7 +1451,10 @@
       <c r="E31" t="n">
         <v>38</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>American Noise Angry words and Honking cars Satellites and Falling stars Distant dark blue radios That's whispered on my boulevard Ghosts and chains rattle in the attic Broken headphones filled with static Lonely room, you've got nowhere to run Three...two... One for all and all for one Times will be bad Times will be good Things I wish I hadn't done and Some how wish I would Cutting through the american noise You've got a voice And a song to sing Drink deep in the morning See what the day will bring La da da da Lift up you're voice Let love cut through The american noise Slamming doors and Cell phone rings Hurricane force of Silent screams Don't know what to believe Bend the rule Just to break it You're so tired Cause you've got to fake it But you just wanna be someone Three...two... One for all and all for one Times will be bad Times will be good Things I wish I hadn't done and Some how wish I would Cutting through the american noise You've got a voice And a song to sing Drink deep in the morning See what the day will bring La da da da Lift up you're voice Let love cut through The american noise No matter who you are You've got a voice Why don't you use it Sing you're own song Take all the noise And make it into music</t>
         </is>
@@ -1389,7 +1484,10 @@
       <c r="E32" t="n">
         <v>42</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>The madness in me The madness in me The madness in me The madness in me The madness in me Just one spark is all it takes I tried so hard but all goes up in flames This is not the way that I thought I would turn out to be Tried to get but all that I got Was more insanity Broken everything that I touched Just gone against me I can't get away From the fire that burns inside, consuming I fight to stay alive but I can't breathe The voices scream, the enemy takes over everything This is the madness in me Madness in me The madness in me Madness in me Madness in me Just one chance is all it takes Can't change the past but I can fight to change today This is not the way that I thought I would turn out to be Tried to get but all that I got Was more insanity Broken everything that I touched Just gone against me Got to get away From the fire that burns inside, consuming I fight to stay alive but I can't breathe The voices scream, the enemy takes over everything This is the madness in me Madness in me The madness in me Madness in me Just one spark Is all it takes From the fire that burns inside, consuming I fight to stay alive but I can't breathe The voices scream, the enemy takes over everything This is the madness in me From the fire that burns inside, consuming I fight to stay alive but I can't breathe The voices scream, the enemy takes over everything This is the madness in me The madness in me This is the madness in me The madness in me</t>
         </is>
@@ -1419,7 +1517,10 @@
       <c r="E33" t="n">
         <v>45</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>All alone, lost in this abyss Crawling in the dark Nothing to wipe my longing clips And I wonder where you are Are You far? Will You come to my rescue? Am I left to die but I can't give up on You I feel You keeping me alive You are my salvation Touch You, taste You, feel You here I feel You keeping me alive You are my salvation Hold me, heal me, keep me near My heart will burn for You It's all I can do Salvation Salvation Keeping me alive Salvation Keeping me Salvation Keeping me alive Been out from under who I am And who I wanna be Held You tightly in my hand While we unraveling Was it me? Will You come to my rescue? Or did I push too far when I turned my back on You? I feel you keeping me alive You are my salvation Touch You, taste You, feel You here I feel You keeping me alive You are my salvation Hold me, heal me, keep me near My heart will burn for You It's all I can do Salvation Salvation Keeping me alive Salvation Touch You, taste You Feel You, need You Give it all just to find You Hold me, heal me I will find You Keeping me alive You are my salvation Touch You, taste You, feel You here Our love will never die You are my salvation Hold me, heal me, keep me near My heart will burn for You It's all I can do Salvation Salvation Touch You, taste You Feel You, need You Salvation</t>
         </is>
@@ -1449,7 +1550,10 @@
       <c r="E34" t="n">
         <v>42</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Every brick and every stone of the world we made Will come undone if I can't feel you here with me In my sleep I call your name But when I wake I need to touch your face Cause I need to feel you here with me You can stop the aching Cause you're the one I need I will burn, I will burn for you With fire and fury. Fire and fury My heart hurts, my heart hurts for you You're love burns within me With fire and fury If I freeze you are the flame You melt my heart, I washed in your rain I know you'll always have the best of me Destiny's got a hold of me Guess I never knew love like love knows me Because I need to feel you here with me I will burn, I will burn for you With fire and fury. Fire and fury My heart hurts, my heart hurts for you You're love burns within me With fire and fury Let it all fall down to dust Can't break the two of us We are the safe in the strength of love You can stop the aching Because you're the one I need I will burn, I will burn for you With fire and fury. Fire and fury My heart hurts, my heart hurts for you You're love burns within me It burns, it burns, it burns, it burns You're love burns within me With fire and fury</t>
         </is>
@@ -1477,9 +1581,12 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36</v>
-      </c>
-      <c r="F35" t="inlineStr">
+        <v>37</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>Who's gonna save my soul Nothing and nobody but you Who's gonna make me whole Nothing and nobody but you Can't change me, sway me Don't know what to make of me You've got my devotion fanatical though it may be I love you mind, heart, body and soul You're the only sanctuary that I know I don't need to stare at stained glass and a steeple I don't need to dress to impress all of the people Don't need no priest Don't need no pew You are my religion my religion is you I don't need no other purpose You give me a reason Ain't their business what I wanna believe in You are my priest You are my truth You are my religion, my religion is you Who's gonna heal my pain Nothing makes me feel like you do Who can drive my demons away Nothing makes me heal like you do I love you mind, heart, body and soul You're the only sanctuary that I know I don't need to stare at stained glass and a steeple I don't need to dress to impress all of the people Don't need no priest Don't need no pew You are my religion my religion is you I don't need no other purpose You give me a reason It ain't their business what I wanna believe in You are my priest You are my truth You are my religion, my religion is you Amazing grace, how sweet the sound That saved a wretch like me Mind, heart, soul and strength Belong to you, belong to me Got my devotion I will follow where you lead I won't be told what to feel and how to show My love can't be stopped Love you any way I want</t>
         </is>
@@ -1509,7 +1616,10 @@
       <c r="E36" t="n">
         <v>37</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Turned on the tv yesterday So much pain bleeding through I had to look away But inside me the picture's just the same And every time I open up my eyes nothing seems to change It never seems to change You give me faith to believe there's a way To put the past finally behind me And hope to make it through another night You give me strength during these dark times when I'm blind You are my light when faith is hard to find When faith is hard to find (Will you still hold on) Something woke me in the night In the midst of the darkness I recognize the light Now inside me the picture seems so clear All the dying in my broken dreams is starting to appear Starting to appear You give me faith to believe there's a way To put the past finally behind me And hope to make it through another night You give me strength during these dark times when I'm blind You are my light when faith is hard to find Faith is hard to find If I fall will you hold on to me Through it all promise you won't lose me These days hope is hard to come by And tonight I don't know how I can't survive You give me faith to believe there's a way To put the past finally behind me And hope to make it through another night You give me strength during these dark times when I'm blind You are my light when faith is hard to find When faith is hard to find (Will you still hold on) You give me faith to believe there's a way To put the past finally behind me And hope to make it through another night You give me strength during these dark times when I'm blind You are my light when faith is hard to find</t>
         </is>
@@ -1539,7 +1649,10 @@
       <c r="E37" t="n">
         <v>50</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>The world around me Is lost in misery The only good I've got in my life is you No meaning, no other reason When everything feels wrong I feel right with you So madly, desperate, deeply obsessed your love is better than life to me Can I have this moment forever? Take me to the beginning You are what I believe I'll live and die for you This is all that I need When nothing is real you are my truth In the darkness you shine Can you keep me safe tonight? When I? m down on my knees You are what I believe When we started, wholehearted I never needed anything or anyone else I was broken, you made me whole again The only one I trusted more than myself So madly, desperate, deeply, I will live for you completely Can I have this moment forever? Take me to the beginning Believe in your love Believe in your life Believe that you can put me back together on the inside Chase all the fear away Every time I speak your name Take me You are what I believe You are what I believe I'll live and die for you This is all that I need When nothing is real you are my truth In the darkness you shine Can you keep me safe tonight? When I'm down on my knees You are what I believe</t>
         </is>
@@ -1569,7 +1682,10 @@
       <c r="E38" t="n">
         <v>43</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>You're on the edge of giving up You know I feel it too It won't be long because I'm with you Bring the fire, bring the smoke, bring the rain We will bend but we will never break If we believe we can't lose Even mountains will move It's my faith, it's my life This is our battle cry They can't take us down If we stand our ground If we live, if we die We will shout out our battle cry Can you hear it Can you feel it It seems like no one knows How you've been feeling You're hiding all your hopes You stopped believing It's not over, we're one step away We will bend but we will never break I believe we can't lose Even mountains will move It's my faith, it's my life This is our battle cry They can't take us down If we stand our ground If we live, if we die We will shout out our battle cry Can you hear it Can you feel it Let it rise like a prayer in the night Shout for love, shout for hope Let them hear us I believe we can't lose Even mountains will move It's our faith, it's our life This is our battle cry They can't take us down If we stand our ground If we live, if we die We will shout out our battle cry Can you hear, can you hear Can you feel, can you feel Can you hear it I can feel it Can you feel it</t>
         </is>
@@ -1599,7 +1715,10 @@
       <c r="E39" t="n">
         <v>43</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Chasing these shadows around this darken room I' ve laid here so long I don' t even want to move I need a minute now to heal I need a minute now to remember how to feel Whenever you' re gone away The darkness hides the day Whenever you' re gone the bleeding won' t stop It hurts till you come back Everything goes black Everything goes black I reached out for yousentir and I needed you to be here All alone chasing these shadows I don't want the pain but I'd rather hurt than not care It's so long, you've been away from here I need a reason now to heal I need something to believe in I need a reason now to remember to feel Whenever you' re gone away The darkness hides the day Whenever you' re gone the bleeding won' t stop It hurts till you come back Everything goes black Everything goes black Give me something to believe in I still believe in you But if you' re never here and I' m left all alone Tell me what am I supposed to do Whenever you' re gone away The darkness hides the day Whenever you' re gone the bleeding won' t stop It hurts till you come back Everything goes black Everything goes black Everything goes black</t>
         </is>
@@ -1629,7 +1748,10 @@
       <c r="E40" t="n">
         <v>43</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Welcome to the freak show Step up, status quo Hope you enjoyed the ride Welcome to the freak show We got horns and halos We ain't afraid and ain't buying a lie Eat it, drink it, think it, be it, breathe it Guess you don't even know who I am I don' t believe it, Need it, see it, Be it, breed it Time to make my final stand Welcome to the freak show This is where the freaks go This is the place that they can never take away Welcome to the freak show We don't ever need though One to tell us who to be, how to feed I don't care what they believe Welcome to the freak show Welcome to the outcast Take a step across the tracks We ain't got nothing to prove Don't need your smiling face Don't need your handshake Because this is my life to live and I ain't living for you Eat it, drink it, think it, be it, breathe it Guess you don't even know who I am I don' t believe it, Need it, see it, Be it, breed it Time to make my final stand Welcome to the freak show This is where the freaks go This is the place that they can never take away Welcome to the freak show We don't ever need though One to tell us who to be, how to think I don't care what they believe Welcome to the freak show I'm a freak naturally Just how I want to be You're a freak just like me I'm a freak naturally Just how I want to be You're a freak just like me Welcome to the freak show This is where the freaks go This is the place that they can never take away Welcome to the freak show We don't ever need though One to tell us who to be, how to think I don't care what they believe Freak show, freak show The place that they can never take away Freak show, freak show The place that they can never take away Welcome to the freak show Welcome to the freak show</t>
         </is>
@@ -1659,7 +1781,10 @@
       <c r="E41" t="n">
         <v>72</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>I'm just a step away I'm a just a breath away Losin my faith today Jen: Fallin off the edge today I am just a man Not superhuman Jen: I'm not superhuman. Someone save me from the hate It's just another war Just another family torn Jen: Falling from my faith today Just a step from the edge Just another day in the world we live I need a hero to save me now I need a hero Jen: Save me now I need a hero to save my life A hero'll save me Jen: Just in time I've gotta fight today To live another day Speakin my mind today Jen: My voice will be heard today I've gotta make a stand But I am just a man Jen: I'm not superhuman. My voice will be heard today It's just another war Just another family torn Jen: My voice will be heard today It's just another kill The countdown begins to destroy ourselves I need a hero to save me now I need a hero Jen: Save me now I need a hero to save my life A hero'll save me Jen: Just in time I need a hero to save my life I need a hero Just in time. Save me just in time Save me just in time Who's gonna fight for what's right Who's gonna help us survive We're in the fight of our lives Jen: And we're not ready to die Who's gonna fight for the weak Who's gonna make 'em believe I've got a hero Jen: I've got a hero Livin in me I'm gonna fight for whats right Today I'm speaking my mind And if it kills me tonight Jen: I will be ready to die A hero's not afraid to give his life A hero's gonna save me just in time I need a hero to save me now I need a hero Jen: Save me now I need a hero to save my life A hero'll save me Jen: Just in time. I need a hero Who's gonna fight for what's right Who's gonna help us survive I need a hero Who's gonna fight for the weak Who's gonna make 'em believe I need a hero I need a hero A Hero's gonna save me just in time!</t>
         </is>
@@ -1689,7 +1814,10 @@
       <c r="E42" t="n">
         <v>77</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>The secret side of me I never let you see I keep it caged but I can't control it so, stay away from me The beast is ugly I feel the rage and I just can't hold it It's scratching on the walls In the closet, in the halls It comes awake and I can't control it Hidin under the bed In my body, in my head Why won't somebody come and save me from this Make it end!! I feel it deep within It's just beneath the skin I must confess that I feel like a monster I hate what I've become The nightmare's just begun I must confess that I feel like a monster I, I feel like a monster I, I feel like a monster My secret side I keep Hid under lock and key I keep it caged but I can't control it 'Cause if I let him out He'll tear me up, break me down Why won't somebody come and save me from this Make it end!! I feel it deep within It's just beneath the skin I must confess that I feel like a monster I hate what I've become The nightmare's just begun I must confess that I feel like a monster I feel it deep within It's just beneath the skin I must confess that I feel like a monster I, I feel like a monster I, I feel like a monster Its hidin in the dark Its teeth are razor sharp There's no escape for me It wants my soul it wants my heart No one can hear me scream Maybe it's just a dream Or maybe it's inside of me Stop this monster I feel it deep within It's just beneath the skin I must confess that I feel like a monster I hate what I've become The nightmare's just begun I must confess that I feel like a monster I feel it deep within It's just beneath the skin I must confess that I feel like a monster I gotta lose control It's something radical I must confess that I feel like a monster I, I feel like a monster I, I feel like a monster I, I feel like a monster I, I feel like a monster</t>
         </is>
@@ -1719,7 +1847,10 @@
       <c r="E43" t="n">
         <v>45</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>I went to bed I was thinking about you Ain't the same since I'm living without you All the memories are getting colder All the things that I wanna do over Went to bed I was thinking about you I wanna talk and laugh like we used to When I see you in my dreams at night It's so real but it's in my mind And now I guess This is as good as it gets [Chorus:] Don't wake me 'Cause I don't wanna leave this dream Don't wake me 'Cause I never seem to stay asleep enough When it's you I'm dreaming of I don't wanna wake up Don't wake me We're together just you and me Don't wake me 'Cause we're happy like we used to be I know I've gotta let you go But don't wake me I went to bed I was thinking about you And how it felt when I finally found you It's like a movie playing over in my head Don't wanna look 'cause I know how it ends All the words that I said that I wouldn't say All the promises I made that I wouldn't break It's last call, last song, last dance 'Cause I can't get you back, can't get a second chance And now, I guess This is as good as it gets Don't wake me 'Cause I don't wanna leave this dream Don't wake me 'Cause I never seem to stay asleep enough When it's you I'm dreaming of I don't wanna wake up Don't wake me We're together just you and me Don't wake me 'Cause we're happy like we used to be I know I've gotta let you go But don't wake me These dreams of you keep on growing stronger It ain't a lot but it's all I have Nothing to do but keep sleeping longer Don't wanna stop cause I want you back Don't wake me 'Cause I don't wanna leave this dream Don't wake me 'Cause I never seem to stay asleep enough When it's you I'm dreaming of I don't wanna wake up</t>
         </is>
@@ -1749,7 +1880,10 @@
       <c r="E44" t="n">
         <v>69</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>I'm at war with the world and they Try to pull me into the dark I struggle to find my faith As I'm slippin' from your arms It's getting harder to stay awake And my strength is fading fast You breathe into me at last Chorus I'm awake I'm alive Now I know what I believe inside Now it's my time I'll do what I want cause this is my life here, right now I'll stand my ground and never back down I know what I believe inside I'm awake and I'm alive I'm at war with the world cause I Ain't never gonna sell my soul I've already made up my mind No matter what I can't be bought or sold When my faith is getting weak And I feel like giving in You breathe into me again I'm awake I'm alive Now I know what I believe inside Now it's my time I'll do what I want cause this is my life here, right now I'll stand my ground and never back down I know what I believe inside I'm awake and I'm alive Waking up waking up [4x] In the dark I can feel you in my sleep In your arms I feel you breathe into me Forever hold this heart that I will give to you Forever I will live for you I'm awake I'm alive Now I know what I believe inside Now it's my time I'll do what I want cause this is my life here, right now I'll stand my ground and never back down I know what I believe inside I'm awake and I'm alive Waking up waking up [4x]</t>
         </is>
@@ -1779,7 +1913,10 @@
       <c r="E45" t="n">
         <v>50</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Tick tock hear the clock countdown Wish the minute hand could be rewound So much to do and so much I need to say Will tomorrow be too late Feel the moment slip into the past Like sand through an hourglass In the madness I guess I just forget To do all the things I said Time passes by Never thought I'd wind up One step behind Now I've made my mind up Today I'm gonna try a little harder Gonna make every minute last longer Gonna learn to forgive and forget 'Cause we don't have long Gonna make the most of it Today I'm gonna love my enemies Reach out to somebody who needs me Make a change, make the world a better place 'Cause tomorrow could be one day too late One day too late One day too late Tick tock hear my life pass by I can't erase and I can't rewind Of all the things I regret the most I do Wish I'd spent more time with you Here's my chance for a new beginning I saved the best for a better ending And in the end I'll make it up to you, you'll see You'll get the very best of me Today I'm gonna try a little harder Gonna make every minute last longer Gonna learn to forgive and forget 'Cause we don't have long Gonna make the most of it Today I'm gonna love my enemies Reach out to somebody who needs me Make a change, make the world a better place 'Cause tomorrow could be one day too late One day too late One day too late Your time is running out You're never gonna get it back Make the most of every moment Stop saving the best for last Today I'm gonna try a little harder Gonna make every minute last longer Gonna learn to forgive and forget 'Cause we don't have long Gonna make the most of it Today I'm gonna love my enemies Reach out to somebody who needs me Make a change, make the world a better place 'Cause tomorrow could be one day too late One day too late One day too late</t>
         </is>
@@ -1809,7 +1946,10 @@
       <c r="E46" t="n">
         <v>47</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Let's get the story straight You were a poison You flooded through my veins You left me broken You tried to make me think That the blame was all on me With the pain you put me through And now I know that it's not me it's you It's not me it's you Always has been you All the lies and stupid things you say and do It's you It's not me it's you All the lies and pain you put me through I know that it's not me it's you You You It's not me it's you, you So here we go again The same fight we're always in I don't care so why pretend Wake me when your lecture ends You tried to make me small Make me fall and it's all your fault With the pain you put me through And now I know that it's not me it's you It's not me it's you Always has been you All the lies and stupid things you say and do It's you It's not me it's you All the lies and pain you put me through I know that it's not me it's you Lets get the story straight You were a poison Flooding through my veins You're driving me insane And now you're gone away I'm no longer choking From the pain you put me through And now I know that it's not me it's you It's not me it's you Always has been you All the lies and stupid things you say and do It's you It's not me it's you All the lies and pain you put me through I know that it's not me it's you, you It's not me it's you It's not me it's you, you It's not me it's you, you It's not me it's you, you It's not me it's you</t>
         </is>
@@ -1839,7 +1979,10 @@
       <c r="E47" t="n">
         <v>41</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>I'm done wondering where you've been All night long when you're out with your friends All you say, that the matter's over But now that chapter's over I'm done trusting you it's ended Even after I catch you red handed You could've been my only one But now your chance is gone [Chorus] You should've when you could've You're gonna miss my love girl You should, it would've been so good You should've when I would've Now I know I've had enough Better luck next time girl You should, it would've been so good I'm done chasing you all over May as well be chasing after thunder Play hard to get if it makes you happy For a change now you can start chasing me Don't cry cause I ain't your sure thing It ain't my fault you don't know a good thing You could've been my only one But now your chance is gone [Bridge] Don't you understand Don't wanna be your backup plan Now I won't be here to clean up when it hits the fan You tried to keep me on your leash It's time you started chasing me</t>
         </is>
@@ -1869,7 +2012,10 @@
       <c r="E48" t="n">
         <v>43</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>I'm still trying to figure out how to tell you I was wrong I can't fill the emptiness inside since you've been gone So is it you or is it me? I know I said things that I didn't mean But you should've known me by now You should've known me If you believed When I said I'd be better off without you Then you never really knew me at all If you believed When I said That I wouldn't be thinking about you You thought you knew the truth but you're wrong You're all that I need Just tell me that you still believe I can't undo the things that led us to this place But I know there's something more to us than our mistakes So is it you or is it me I know I'm so blind when we don't agree But you should've known me by now You should've known me If you believed When I said I'd be better off without you Then you never really knew me at all If you believed When I said That I wouldn't be thinking about you You thought you knew the truth but you're wrong You're all that I need Just tell me that you still believe So is it you or is it me? I know I said things that I didn't mean But you should've known me by now You should've known me If you believed When I said I'd be better off without you Then you never really knew me at all If you believed (believed) When I said That I wouldn't be thinking about you You thought you knew the truth but you're wrong Cause you're all that I want Don't you even know me at all You're all that I need Just tell me that you still believe</t>
         </is>
@@ -1899,7 +2045,10 @@
       <c r="E49" t="n">
         <v>43</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Forgive me now cause I Have been unfaithful Don't ask me why cause I don't know So many times I've tried But was unable This heart belongs to you alone Now I'm in our secret place Alone in your embrace Where all my wrongs have been erased You have forgiven All the promises and lies All the times I compromise All the times you were denied You have forgiven Forgive me I'm ashamed I've loved another I can't explain cause I don't know No one can take your place And there is no other Forever yours and yours alone Now I'm in our secret place Alone in your embrace Where all my wrongs have been erased You have forgiven All the promises and lies All the times I compromise All the times you were denied You have forgiven Oh,oh,oh, Oh,oh,oh, Oh,oh,oh Oh, oh, oh Yeah, Yeah I get down on my knees Feel your love wash over me There will never be another You're the only one forever And you know I'm yours alone I'm in our secret place Alone in your embrace Where all my wrongs have been erased You have forgiven All the promises and lies All the times I compromise All the times you were denied You have forgiven Oh,oh,oh, Oh,oh,oh, Oh,oh,oh You have forgiven Forgiven</t>
         </is>
@@ -1929,7 +2078,10 @@
       <c r="E50" t="n">
         <v>42</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Sometimes when I lie I know you're on to me Sometimes I don?t mind How hateful that I can be Sometimes I don't try To make you happy I don?t know why I do the things I do to you but? Chorus Sometimes I don't wanna be better Sometimes I can't be put back together Sometimes I find it hard to believe There?s someone else who could be Just as messed up as me Sometimes don't deny That everything is wrong Sometimes rather die Than to admit it's my fault Sometimes when you cry I just don?t care at all I don't know why I do the things I do to you but? I want someone to hurt Like the way I hurt It's sick but it makes me feel better Sometimes I can't hide The demons that I face Sometimes don't deny I'm sometimes sinner sometimes saint</t>
         </is>
@@ -1959,7 +2111,10 @@
       <c r="E51" t="n">
         <v>52</v>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>Do you know what it's like when You're scared to see yourself Do you know what it's like when You wish you were someone else Who didn't need your help to get by Do you know what it's like To wanna surrender (Chorus) I don't wanna feel like this tomorrow I don't wanna live like this today Make me feel better I wanna feel better Stay with me here now And never surrender Do you now what it's like when You're not who you wanna be Do you know what it's like to Be your own worst enemy Who sees the things in me I can't hide Do you know what it's like To wanna surrender? (Chorus) I don't wanna feel like this tomorrow I don't wanna live like this today Make me feel better I wanna feel better Stay with me here now And never surrender Make me feel better You make me feel better You make me feel better Put me back together (Chorus) I don't wanna feel like this tomorrow I don't wanna live like this today Make me feel better I wanna feel better Stay with me here now And never surrender Put me back together Never surrender Make me feel better You make me feel better Stay with me here now And Never Surrender</t>
         </is>
@@ -1989,7 +2144,10 @@
       <c r="E52" t="n">
         <v>52</v>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>Hey Lucy, I remember your name I left a dozen roses on your grave today I'm in the grass on my knees, wipe the leaves away I just came to talk for a while I got some things I need to say Chorus Now that it's over I just wanna hold her I'd give up all the world to see that little piece of heaven looking back at me Now that it's over I just wanna hold her I've gotta live with the choices i made And I can't live with myself today Hey Lucy, I remembered your birthday They said it'd bring some closure to say your name I know I'd do it all different if I had the chance But all I got are these roses to give And they can't help me make amends Chorus Now that it's over I just wanna hold her I'd give up all the world to see that little piece of heaven looking back at me Now that it's over I just wanna hold her I've gotta live with the choices i made And I can't live with myself today Here we are Now you're in my arms I never wanted anything so bad Here we are For a brand new start Living the life that we could've had Me and Lucy walking hand in hand Me and Lucy never wanna end Just another moment in your eyes I'll see you in another life In heaven where we never say goodbye Chorus Now that it's over I just wanna hold her I'd give up all the world to see that little piece of heaven looking back at me Now that it's over I just wanna hold her I've gotta live with the choices i made And I can't live with myself today Here we are, now you're in my arms Here we are for a brand new start Got to live with the choices I've made And I can't live with myself today Me and Lucy walking hand in hand Me and Lucy never wanna end Got to live with the choices I've made And I can't live with myself today Hey Lucy, I remember your name</t>
         </is>
@@ -2019,7 +2177,10 @@
       <c r="E53" t="n">
         <v>57</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" t="inlineStr">
         <is>
           <t>I lie here paralytic Inside this soul Screaming for You till My throat is numb I wanna break out I need a way out I don't believe that its gonna be this way The worst is The waiting In this world I'm suffocating Feel Your presence Filling up my lungs with oxygen I take You in I've died *Chorus* Rebirthing now I wanna live for love Wanna live for You and me (Breathe for the first time now I came alive somehow) Rebirthing now I wanna live my life Wanna give You everything (Breathe for the first time now I came alive somehow) Right now Right now I lie here lifeless In this cocoon Shedding the skin cause I'm ready to I wanna break out I found a way out I don't believe that its gonna be this way The worst is the waiting In this world I'm suffocating Feel Your presence Filling up my lungs with oxygen I take You in I've died (Chorus) Tell me when I'm gonna live again Tell me when I'm gonna breathe you in Tell me when I'm gonna feel inside Tell me when I'm gonna feel alive Tell me when I'm gonna live again Tell me when this fear will end Tell me when I'm gonna feel inside Tell me when I'll feel alive (Chorus)</t>
         </is>
@@ -2049,7 +2210,10 @@
       <c r="E54" t="n">
         <v>54</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="inlineStr">
         <is>
           <t>You come to me with your scars on your wrist You tell me this will be the last night feeling like this I just came to say goodbye I didn't want you to see me cry, I'm fine But I know it's a lie This is the last night you'll spend alone Look me in the eyes so I know you know I'm everywhere you want me to be The last night you'll spend alone I'll wrap you in my arms and I won't let go I'm everything You need me to be Your parents say everything is your fault But they don't know you like I know you They don't know you at all I'm so sick of when they say It's just a phase, you'll be o.k. you're fine But I know it's a lie This is the last night you'll spend alone Look me in the eyes so I know you know I'm everywhere you want me to be The last night you'll spend alone I'll wrap you in my arms and I won't let go I'm everything You need me to be The night is so long when everything's wrong If you give me a hand I will help you hold on Tonight Tonight This is the last night you'll spend alone Look me in the eyes so I know you know I'm everywhere you want me to be The last night you'll spend alone I'll wrap you in my arms and I won't let go I'm everything You need me to be I won't let you say goodbye And I'll be your reason why The last night away from me Away from me</t>
         </is>
@@ -2077,9 +2241,12 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>45</v>
-      </c>
-      <c r="F55" t="inlineStr">
+        <v>46</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="inlineStr">
         <is>
           <t>I see you standing here But you’re so far away Starving for your attention You don’t even know my name You’re going through so much But I know that I could be the one to hold you Every single day I find it hard to say I could be yours alone You will see someday That all along the way I was yours to hold I was yours to hold I see you walking by Your hair always hiding your face I wonder why you’ve been hurting I wish I had some way to say You’re going through so much Don’t you know that I will be the one to hold you I’m stretching but you’re just out of reach You should know I’m ready when you’re ready for me And I’m waiting for the right time For the day I catch your eye To let you know That I’m yours to hold I'm stretching but you're just out of reach I'm ready when you're ready for me</t>
         </is>
@@ -2107,9 +2274,12 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46</v>
-      </c>
-      <c r="F56" t="inlineStr">
+        <v>47</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Feel your every heartbeat Feel you on these empty nights Calm the ache, stop the shakes You clear my mind You're my escape From this messed up place 'Cause you let me forget You numb my pain How can I tell you just all that you are What you do to me You're better than drugs your love is like wine Feel you comin' on so fast Feel you comin' to get me high You’re better than drugs Addicted for life Feel you comin' on so fast Feel you comin' on to get me high Feel you when I'm restless Feel you when I cannot cope You're my addiction, my prescription, my antidote You kill the poison Ease the suffering Calm the rage when I'm afraid To feel again How can I tell you just all that you are What you do to me Feel your every heartbeat Feel you on these empty nights You're the strength of my life Feel your every heartbeat Feel you on these empty nights Feel your every heartbeat Feel you come to get me high</t>
         </is>
@@ -2139,7 +2309,10 @@
       <c r="E57" t="n">
         <v>67</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>I hate feeling like this I'm so tired of trying to fight this I'm asleep and all I dream of Is waking to you Tell me that you will listen Your touch is what I'm missing And the more I hide I realize I'm slowly losing you Comatose I'll never wake up without an overdose of you I don't wanna live I don't wanna breath 'Les I feel you next to me You take the pain I feel (Waking up to you never felt so real) I don't wanna sleep I don't wanna dream 'Cause my dreams don't comfort me The way you make me feel (Waking up to you never felt so real) I hate living without you Dead wrong to ever doubt you But my demons lay in waiting Tempting me away Oh how I adore you Oh how I thirst for you Oh how I need you Comatose I'll never wake up without an overdose of you I don't wanna live I don't wanna breath 'Les I feel you next to me You take the pain I feel (Waking up to you never felt so real) I don't wanna sleep I don't wanna dream 'Cause my dreams don't comfort me The way you make me feel (Waking up to you never felt so real) Breathing life Waking up My eyes Open up Comatose I'll never wake up without an overdose of you I don't wanna live I don't wanna breath 'Les I feel you next to me You take the pain I feel (Waking up to you never felt so real) I don't wanna sleep I don't wanna dream 'Cause my dreams don't comfort me The way you make me feel (Waking up to you never felt so real) Oh how I adore you (Waking up to you never felt so real) Oh how I thirst for you (Waking up to you never felt so real) Oh how I adore you The way you make me feel (Waking up to you never felt so real)</t>
         </is>
@@ -2169,7 +2342,10 @@
       <c r="E58" t="n">
         <v>44</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>The walls between You and I Always pushing us apart nothing left but scars fight after fight The space between Our calm and rage Started growing shorter, disappearing slowly day after day I was sitting there waiting in my room for you You were waiting for me too And it makes me wonder The older I get Will I get over it It's been way too long for the times we missed I didn't know then it would hurt like this but I think The older I get Maybe I'll get over it It's been way too long for the times we missed I can't believe it still hurts like this The time between Those cutting words Built up our defenses never made no sense it just made me hurt Do you believe That time heals all wounds It started getting better but it's easy not to fight when I'm not with you What was I waiting for I should've taken less and given you more I should've weathered the storm I need to say so bad What were you waiting for This could have been the best we ever had I'm just getting older I'm not getting over you I'm trying to I wish it didn't hurt like this It's been way too long for the times we missed I can't believe it still hurts like this</t>
         </is>
@@ -2199,7 +2375,10 @@
       <c r="E59" t="n">
         <v>51</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="inlineStr">
         <is>
           <t>I remember when We used to laugh About nothing at all It was better than going mad From trying to solve all the problems we're going through Forget 'em all Cause on those nights we would stand and never fall Together we faced it all Remember when we'd Stay up late and we'd talk all night In a dark room lit by the tv light Through all the hard times in my life Those nights kept me alive We'd listen to the radio play all night Didn't want to go home to another fight Through all the hard times in my life Those nights kept me alive I remember when We used to drive Anywhere but here As long as we'd forget our lives We were so young and confused that we didn't know To laugh or cry Those nights were ours They will live and never die Together we'd stand forever Remember when we'd Those nights belong to us There's nothing wrong with us I remember when We used to laugh And now I wish those nights were last</t>
         </is>
@@ -2229,7 +2408,10 @@
       <c r="E60" t="n">
         <v>60</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" t="inlineStr">
         <is>
           <t>Tonight I'm so alone This sorrow takes ahold Don't leave me here so cold Never want to be so cold Your touch used to be so kind Your touch used to give me life I've waited all this time, I've wasted so much time Don't leave me alone Cause I barely see at all Don't leave me alone, I'm Falling in the black Slipping through the cracks Falling to the depths can I ever go back Dreaming of the way it used to be Can you hear me Falling in the black Slipping through the cracks Falling to the depths can I ever go back Falling inside the black Falling inside falling inside the black You were my source of strength I've traded everything That I love for this one thing Stranded in the offering Don't leave me here like this Can't hear me scream from the abyss And now I wish for you my desire Don't leave me alone Cause I barely see at all Don't leave me alone, I'm Falling in the black Slipping through the cracks Falling to the depths can I ever go back Dreaming of the way it used to be Can you hear me Falling in the black Slipping through the cracks Falling to the depths can I ever go back Falling inside the black Falling inside falling inside the black, black, black, black Falling in the black Slipping through the cracks Falling in the black Slipping through the cracks Falling to the depths can I ever go back Dreaming of the way it used to be Can you hear me Falling in the black Slipping through the cracks Falling to the depths can I ever go back Falling inside the black [Can you hear me] Falling inside the black [Can you hear me] Falling inside the black [Can you hear me] Falling inside Falling inside falling inside the black</t>
         </is>
@@ -2259,7 +2441,10 @@
       <c r="E61" t="n">
         <v>44</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>Things are changing It seems strange and I need to figure this out You’ve got your life I got mine But you’re all I cared about Yesterday we were laughing Today I’m left here asking Where has all the time gone now I’m left alone somehow Growing up and getting older I don’t want to believe it’s over Don’t say goodbye Cause I don’t wanna hear those words tonight Cause maybe it’s not the end for you and I And although we knew This time would come for me and you Don’t say anything tonight If you’re gonna say goodbye Do you remember In December How we swore we’d never change Even though you’re leaving That our feelings Would always stay the same I wish we could be laughing Instead I’m standing here asking Do we have to end this now Can we make it last somehow We both know what we’ve gotta say, not today Cause I don’t wanna leave this way And if it’s over It hurts but I’m giving you my word I hope that you’re always Happy like we were Happy like we were Yesterday we were laughing (if you're gonna say goodbye) Today i'm left here asking(if you're gonna say goodbye) And although we knew this time would come for me and you Don't say anything tonight If you're gonna say goodbye</t>
         </is>
@@ -2289,7 +2474,10 @@
       <c r="E62" t="n">
         <v>66</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="inlineStr">
         <is>
           <t>Despite the lies that you're making Your love is mine for the taking My love is Just waiting To turn your tears to roses Despite the lies that you're making Your love is mine for the taking My love is Just waiting To turn your tears to roses I will be the one that's gonna hold you I will be the one that you run to My love is A burning, consuming fire No You'll never be alone When darkness comes I'll light the night with stars Hear my whispers in the dark No You'll never be alone When darkness comes you know I'm never far Hear my whispers in the dark You feel so lonely and ragged You lay here broken and naked My love is Just waiting To clothe you in crimson roses I will be the one that's gonna find you I will be the one that's gonna guide you My love is A burning, consuming fire</t>
         </is>
@@ -2317,9 +2505,12 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>41</v>
-      </c>
-      <c r="F63" t="inlineStr">
+        <v>42</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="inlineStr">
         <is>
           <t>Going through this life looking for angels People passing by looking for angels Walk this world alone try to stay on my feet Sometimes crawl, fall, but I stand up Cause I'm afraid to sleep And open my eyes to a new day With all new problems 4. and all new pain All the faces are filled with so much anger Losing our dignity and hope from fear of danger After all the wars, after settling the scores At the break of dawn we will be deaf to the answers There's so much bigotry, misunderstanding and fear With eyes squinted and fists clinched We reach out for what is dear We want it we want We want a reason to live We're on a pilgrimage A crusade for hope Cause in our hearts and minds and souls we know We need it we need We need more than this Going through this life looking for angels People passing by looking for angels Walking down the streets looking for angels Everyone I meet looking for angels So many nations with so many hungry people So many homeless scrounging around for dirty needles On the rise, teen suicide, when we will realize We've been desensitized by the lies of the world We're oppressed and impressed by the greedy Whose hands squeeze the life out of the needy When will we learn that wars, threats And regrets are the cause and effect of living in fear Who can help protect the innocence of our children Stolen on the internet with images they can't forget We want it we want We want a reason to live We represent a generation That wants to turn back a nation To let love be our light and salvation We need it we need We need more than this I became a savior to some kids I'll never meet Sent a check in the mail to buy them Something to eat What will you do to make a difference To make a change? What will you do to help someone along the way? Just a touch, a smile as you turn the other cheek Pray for your enemies, humble yourself Love's staring back at me In the midst of the most painful faces Angels show up in the strangest of places</t>
         </is>
@@ -2349,7 +2540,10 @@
       <c r="E64" t="n">
         <v>37</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
         <is>
           <t>Why do I have to beg When all this left Is a memory Forsaken Why do I have to beg When all this left Is a memory Forsaken, forsaken, forsaken Forsaken, forsaken, forsaken I recall going madly in love with you Aand I remember this How could I forget Regret is a needle in My neck it's slowly filling me with poison Spreading to my chest Take my pain And numb me from this Why do I have to beg When all this left Is a memory Forsaken Why do I have to beg When all this left Is a memory Forsaken I recall pledging my sole devotion to you It reminds me how now i'm on my knees My guilt consumes, lost the will in me Wasting away before you Hold me closer please Take my pain And numb me from this Why do I have to beg When all this left Is a memory Forsaken Why do I have to beg When all this left Is a memory Forsaken Yeeeah, yeeeah, yeeeah Forsake You break me Forsake You break me You're breaking me I recall going madly in love with you and I remember this... Tell me why do I have to beg When all this left Is a memory Forsaken Why do I have to beg When all this left Is a memory Forsaken Tell my why, why! Why. why!</t>
         </is>
@@ -2379,7 +2573,10 @@
       <c r="E65" t="n">
         <v>47</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
         <is>
           <t>I'm everything you've wanted I am the one who's haunting you I am the eyes inside of you, stare back at you There's nothing left to lose There's nothing left to prove Surrender your love, it's all you can do What you got, what you want, what you need Gonna be your savior Everything's gonna crash and break But I know, yeah I know What you got what you want, what you need Gonna be your savior Everything's gonna crash and break Your savior It's time to redefine your deophobic mind Don't hesitate, no escape The secrets on the inside There's nothing left to lose There's nothing left to prove Surrender your love, it's all you can do What you got, what you want, what you need Gonna be your savior Everything's gonna crash and break But I know, yeah I know What you got what you want, what you need Gonna be your savior Everything's gonna crash and break Your savior I am the eyes inside staring back at you (2x) You need You need me What got, what you need Everything's gonna crash and break What got, what you need Everything's gonna crash and break What you got, what you want, what you need Gonna be your savior Everything's gonna crash and break But I know, yeah I know What you got what you want, what you need Gonna be your savior Everything's gonna crash and break Your savior</t>
         </is>
@@ -2407,9 +2604,12 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30</v>
-      </c>
-      <c r="F66" t="inlineStr">
+        <v>31</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>We have fallen We have fallen again tonight Where do we go from here When they’re tearing down our lives? When all they want is When all they want is For us to live in fear How long can we hold on? Can we hold on? Hold on There’s something deep inside That keeps my faith alive When all you can do Is hide from the fear That’s deep inside of you Something, something, something Something, something, something To hold me close when I don’t know There’s something deep inside That keeps my faith alive We are healing But it’s killing us inside Can we take a chance? When faith and fear collide We can make it Step out and take it We can’t live feeling so numb How long can we hold on? Can we hold on? Hold on There’s something deep inside That keeps my faith alive When all you can do Is hide from the fear That’s deep inside of you Something, something, something Something, something, something To hold me close when I don’t know There’s something deep inside That keeps my faith alive (2x)</t>
         </is>
@@ -2439,7 +2639,10 @@
       <c r="E67" t="n">
         <v>33</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
         <is>
           <t>Love is all around you now, so take a hold Hidden in our words, it sometimes ain't enough Don't suffocate itday after day, it's buildin' up 'Cause when you're feeling weak you know I'm strong enough Just one more day One more day Oh, let the world crash, love can take it Oh, let the world come crashin' down Oh, let the world crash, love can take it Love can take a little Love can give a little more Love is indestructible, so take a hold Sometimes hard to find a reason good enough I'll stand beside you, never leave through it all And faith will bring a way to the impossible Just one more day One more day Oh, let the world crash, love can take it Oh, let the world come crashin' down Oh, let the world crash, love can take it Love can take a little Love can give a little more You can find me You can find me You can find me anywhere Take a look over you shoulder I'll be standing there Love is all around you now, so take a hold And faith will bring a way to the impossible You can find me, you can find me (Just one more day, one more day) You can find me anywhere You can find me, you can find me (Just one more day, one more day) You can find me anywhere Let the world crash, love can take it Oh, let the world come crashin' down Oh, let the world crash, love can take it Love can take a little Love can take a little Love can take a little Love can give a little more A little more Take a little more Take a little more</t>
         </is>
@@ -2467,9 +2670,12 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>39</v>
-      </c>
-      <c r="F68" t="inlineStr">
+        <v>40</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
         <is>
           <t>Your touch, your ways Leave me dumb without reason Your love, my cage My prison so pleasing I spend my days Tangled in thoughts of you Stuck in this place Resigned to be your fool I thirst no longer Drenching my soul Pouring out like water You're my only infatuation Don't leave my stranded in my obsession My purpose, my possession Live and die, in my obsession My obsession Come down to me Don't ever say that it's over I kiss your feet Worship the air you breathe Your love, my gift You go and I will follow My dream, my wish Don't leave me here so helpless You're my only infatuation Don't leave my stranded in my obsession My purpose, my possession Live and die, in my obsession My obsession I'm a lunatic I'm going crazy For just a word from For just a touch from you And I'm exploding like chemicals I'm going crazy, can't get enough 2x You're my only infatuation Don't leave my stranded in my obsession My purpose, my possession Live and die, in my obsession My obsession 2x My obsession</t>
         </is>
@@ -2497,9 +2703,12 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
-      </c>
-      <c r="F69" t="inlineStr">
+        <v>31</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
         <is>
           <t>Never reaching what I want to reach Never being who I want to be Blaming me when I fall and fail All my dreams splintering Under my fingernails Under my fingernails I’m empty, lonely, and accused Accused without a word My fingernails are chipping down From clawing in the dirt I’m so lost, lost and confused I threw it all away How can I be beautiful When I am so afraid Never reaching what I want to reach Never being who I want to be Blaming me when I fall and fail All my dreams splintering Under my fingernails All my dreams out of reach Under my fingernails I watched it all slip through my hands My brokenness revealed I’m so proud, I’m so proud I’m crying to be filled I’m killing, destroying the plague That’s killing me away I’ve got to live, I’ve got to love Like I am unafraid Never reaching what I want to reach Never being who I want to be Blaming me when I fall and fail All my dreams splintering Under my fingernails (2x) All my dreams out of reach Under my fingernails I’m wasting, wasting every moment I want to be tasting Tasting every moment with you I’m suffering, I’m bleeding, on my knees Who’s going to save me? Suffering, bleeding Save me from this pit of frailty Never reaching what I want to reach Never being who I want to be Blaming me when I fall and fail All my dreams splintering Under my fingernails (2x) All my dreams out of reach Under my fingernails Never reaching me</t>
         </is>
@@ -2527,9 +2736,12 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>32</v>
-      </c>
-      <c r="F70" t="inlineStr">
+        <v>33</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
         <is>
           <t>V1: Your worth so much It'll never be enough to see what you have to give How beautiful you are Yet seem so far from everything you're wanting to be Pre: Tears falling down again Tears falling down Chorus: You fall to your knees You beg, you plead Can I be somebody else for all the times I hate myself? Your failures devour your heart in every hour You're drowning in your imperfection V2: You mean so much That heaven would touch the face of humankind for you How special you are Revel in your day You're fearfully and wonderfully made (Pre &amp; chorus) V3: Your worth so much So easily crushed Wanna be like everyone else No one escapes Every breathe we take dealing with our own skeletons</t>
         </is>
@@ -2559,7 +2771,10 @@
       <c r="E71" t="n">
         <v>31</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>v1: when i feel you close to me it's easy to believe to the depths and back again to find that i'm still needing feel the fear dissipate when you are everything you are feel my soul come awake you carry me away Chorus: when i hurt, when i bleed you are holding me feel you scratching at the surface under my skin v2: oh the sweet serenity i'm beautifully addicted you are more than i can take i crave you undiluted you calm the ache, i come awake when you are everything you are feel the fear dissipate you carry me away Bridge: could i be lost, could i dissapear could i be lost, would you find me here could i be lost in a secret place could i rest in the shadow of your face oh the sweet serenity, beautifully a part of me</t>
         </is>
@@ -2589,7 +2804,10 @@
       <c r="E72" t="n">
         <v>33</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
         <is>
           <t>v1: power is another word that i use to describe you your mighty winds come in and blow me away frightening, coming at me like lightning it's you that i fear, yeah yeah i shake whenever you speak my name pre: and i'm surrounded your overpower me Chorus: you're a silent rage you're a hurricane you are everything i can not see and can't explain you're an enigma wrapped in a mystery everywhere i go, i can't escape your energy v2: divine is a reality that you define you defy time i see you in everything in fire and wind and rain captured is just the word to capture how i feel when i still you are what i crave you set me free i want to be your slave (pre &amp; chorus) Bridge: i can't escape your energy</t>
         </is>
@@ -2617,9 +2835,12 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28</v>
-      </c>
-      <c r="F73" t="inlineStr">
+        <v>29</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
         <is>
           <t>(Verse 1:) Crashing Covered with debris Dwelling in my own pity Cry like I have not Dig like I had not I start to claw Gotta get outta here I've got, gotta get out (Chorus:) I am, I am, I am on a higher ground You are, you are the cure from the cycle down (Verse 2:) Sinking In a sea of self Deception Never sold so well Regret like I have not Pain like I don't want I start to claw Gotta get outta here I've got, gotta get out (Bridge:) I'm so cold and I wonder How'd I make it this long without you Pull me out, out from under On the cycle back to you</t>
         </is>
@@ -2649,7 +2870,10 @@
       <c r="E74" t="n">
         <v>28</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>01 (It's been confirmed that the aliens have landed.) Worldwide Jesus Domination Love conquers all Rise like a chosen generation There's no stopping it all Come on freaks let's go Come on freaks let's go Get all the freaks and lets go Yeah yeah Chorus: We're taking over the world We're the Alien Youth We're coming for your souls We're gonna, we're gonna, we're gonna Shake the world We're the Alien Youth We're taking over, over, over Alien Youth Do you believe that the aliens have landed We're everywhere you go Infiltrate at the break of revolution You can't stop the revival And we're not going to leave this world alone And we're not going to leave it yeah! CHORUS Come on freaks let's go Get all the freaks and let's go Come on freaks let's go Get all teh freaks and let's go And we're not going to leave this world along And we're not going to leave it yeah! And we're not going to leave this world alone And we're not going to leave CHORUS Words and Music by John L. Cooper © 2001 Photon Music (BMI). All Rights Reserved</t>
         </is>
@@ -2677,9 +2901,12 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22</v>
-      </c>
-      <c r="F75" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>And the future's robbing my soul I'm face to face with my futility And my life is slipping away Inhaling my mortality I'm a beep, I'm a vapor I'm just a blinking light I'm a beep, I'm a vapor And I'm about to evaporate I'm a beep, I'm a vapor I'm just a blinking light I'm a beep, I'm a vapor I'm a vapor And I feel my skin's just a shell Underneath is my reality I breathe dimensions unknown It conquers my mortality I'm a beep, I'm a vapor I'm just a blinking light I'm a beep, I'm a vapor And I'm about to evaporate I'm a beep, I'm a vapor I'm just a blinking light I'm a beep, I'm a vapor I'm a vapor It's a mad world will it ever stop? Will the madness end? While my body decays my soul does not Death is just the beginning And the future is robbing my soul Inhaling my mortality I'm a beep, I'm a vapor I'm just a blinking light I'm a beep, I'm a vapor And I'm about to evaporate I'm a beep, I'm a vapor I'm just a blinking light I'm a beep, I'm a vapor I'm a vapor I'm a beep, I'm a vapor I'm just a blinking light I'm a beep, I'm a vapor And I'm about to evaporate I'm a beep, I'm a vapor I'm just a blinking light I'm a beep, I'm a vapor I'm a vapor</t>
         </is>
@@ -2707,9 +2934,12 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>23</v>
-      </c>
-      <c r="F76" t="inlineStr">
+        <v>24</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
         <is>
           <t>One man, one mission One plot to save the world Reclaim all races And embrace our destiny Changing history when the colliding comes Where will you run Come with us if you want to live Join us in the army that's arising The truth invades your mind Every day the Kingdom is advancing The earth invasion has just begun Without a sound, without fear It attacks the heart and soul To rule all life and display His government Join us in the army that's arising The truth invades your mind Every day the Kingdom is advancing The earth invasion has just begun Join us in the army that's arising The truth invades your mind Every day the Kingdom is advancing The earth invasion has just begun The earth's frustration To be whole again We'll see a nation Living without sin The earth invasion One man, one mission One plot to save the world Join us in the army that's arising The truth invades your mind Every day the Kingdom is advancing The earth invasion has just begun</t>
         </is>
@@ -2739,7 +2969,10 @@
       <c r="E77" t="n">
         <v>29</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
         <is>
           <t>Times are hard, times have changed, don’tcha say? But I keep holding onto you It’s hard to keep the faith alive day to day Leanin’ on the strength I’ve found in you You’re the hope of all the earth Chorus: You are my hope You are my strength You’re everything, everything I need You are my hope You are my life You are my hope You are my hope Far beyond what I can see or comprehend Etching your eternity in me Nations stream and angels sing “Jesus reigns” And every knee bows down You’re the hope of all the earth Chorus Carry on and I sing of how You love and I love you now All the times that I start to sink You come and you rescue me You are my hope You are my hope You are my hope You are my hope Chorus (x2)</t>
         </is>
@@ -2769,7 +3002,10 @@
       <c r="E78" t="n">
         <v>23</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>It?s eating me away I said to God It?s rotting in my mind It?s like a cancer Is there anything, anything at all to numb The nothingness I need a reason to breathe It?s eating me away Save me from my rage And my humanity I?m more nothing than being Is this my legacy Feel it eating me away Yeah, yeah... Eating me away It nibbles at my brain The question of my existance And the matter of pain I shake my fist, I shake my fist At the cosmos and my insignificance I need a reason to breathe It?s eating me away All that I am, all that I want, all that I lack Come on and save me All that I am, all that I want, all that I lack Come on and save me (CHORUS) All that I am, all that I want, all that I lack Come on and save me All that I am, all that I want, all that I lack Come on and save me It's eating me away (CHORUS)</t>
         </is>
@@ -2797,9 +3033,12 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29</v>
-      </c>
-      <c r="F79" t="inlineStr">
+        <v>30</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
         <is>
           <t>Break my bones and reset me Piece by piece you break me Pick up the cross 'cause it's killing time How can I scream when the pain is Such a release I get the courage To pick up the nails 'cause it's killing time Kill me, heal me Kill me, heal me On and on Kill me, heal me Kill me, heal me On and on Breathing your love You're ferocious You're in my lungs Resuscitate Craving your electricity Feet to my pain you give Wings to my fear your peace Inhabits my blood Your love is thick Kill me, heal me Kill me, heal me On and on Kill me, heal me Kill me, heal me On and on I can't live without it I can't live without it I can't live without it I can't live without it Kill me, heal me Kill me, heal me On and on Kill me, heal me Kill me, heal me On and on Kill me, heal me Kill me, heal me On and on Kill me, heal me Kill me, heal me On and on</t>
         </is>
@@ -2829,7 +3068,10 @@
       <c r="E80" t="n">
         <v>25</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
         <is>
           <t>CHORUS: You alone are what my soul needs You know the thirst is taking over Hardly breathe, I'm in urgent need You know the thirst is taking over The thirst is taking over Hold me down, hold me down Drip it on my tongue And my convulsions stop Thirst for love, thirst for your love I could swallow your beauty whole CHORUS Running out, times running out Searching for the one who can conquer me I'm going to scream aloud, throw it down Crash in the sweet obsession of you I'm going to swim and drown in the wake of you CHORUS The thirst is taking over I wanna taste it I need to taste it Deep in the Saviors arms CHORUS I wanna drink you in I am drinking you in I wanna drink you in Hardly breathe, I'm in urgent need You know the thirst is taking over The thirst is taking over I wanna taste it I need to taste it Deep in the Saviors arms</t>
         </is>
@@ -2857,9 +3099,12 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22</v>
-      </c>
-      <c r="F81" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
         <is>
           <t>Speak, and my heart starts aching Reach, and the numbness dims Beat, still my minds uncertain Breathe, it begins again You are the One Real Thing You are the One True Thing that I know You are the One Real Thing No matter what the future brings You're the One Real Thing Stay, locked within Your presence Truth, renew in my mind again Rest, cuz I know You're faithful and I Trust, cuz I know Your name You are the One Real Thing You are the One True Thing that I know You are the One Real Thing No matter what the future brings You're the One Real Thing I get down on my knees and I Feel Your love wash over me 4x Speak, and my heart starts aching Reach, and the numbness dims Beat, still my minds uncertain Breathe, it begins again, again... You are the One Real Thing You are the One True Thing that I know You are the One Real Thing No matter what the future brings You're the One Real Thing I get down on my knees and I Feel Your love wash over me (Fade out)</t>
         </is>
@@ -2887,9 +3132,12 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
-      </c>
-      <c r="F82" t="inlineStr">
+        <v>21</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
         <is>
           <t>My skin is my disguise I'm more than a man I smile at my demise Ask who I am More than a man More than a man More than a man More than a man My skin is my disguise I'm more than a man I was sent to rule on Earth Ask who I am I wreck, I wreck, I wreck I wreck with every prayer Ask who I am CHORUS: Cause I'm stronger, yeah Than the devil, yeah, yeah Cause I'm stronger, yeah Than the devil, yeah, yeah The fear tries to take me The flesh tries to pull Blackness all around me but I'm undefeatable My God is strong My God is strong My God is strong My God is strong All creation watches for Him to arrive CHORUS</t>
         </is>
@@ -2919,7 +3167,10 @@
       <c r="E83" t="n">
         <v>20</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>They say Jesus is doing nothing They say evolution took His place There's no God that created the world and No Savior for the human race They say God is powerless He laughs aloud as we cry in pain It's just a part of his sick, sick humor Forcing us to appreciate CHORUS: You say that God is dead but you're rippin' me off You can't infect my mind with your vanity You say that God is dead but you're rippin' me off You can't infect my mind with your vanity You're rippin' me off They say God doesn't even exist We made him up just to numb our pain They can't believe in a loving God Who doesn't believe in atheists CHORUS We take too much CHORUS</t>
         </is>
@@ -2947,9 +3198,12 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23</v>
-      </c>
-      <c r="F84" t="inlineStr">
+        <v>24</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
         <is>
           <t>As I fall to sleep Will you comfort me When my heart is weak Will you rescue me Will you be there As I grow cold Will you be there when I'm falling down Will you be there When I'm in retreat Can I run to you Will my pain release At your mercy seat CHORUS: Will you be there As I grow cold Will you be there when I'm falling down Will you be there My heart grows cold Will you be there when I'm falling down Are you saying yes I gotta believe it Are you saying yeah When your love comes down I can rest my eyes Feel your grace and power flood into my life As my brokenness and your strength collide When your love comes down Falling Down As I fall to sleep CHORUS As I grow cold Will you be there My heart grows cold Will you be there when I'm falling down</t>
         </is>
@@ -2977,9 +3231,12 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>20</v>
-      </c>
-      <c r="F85" t="inlineStr">
+        <v>21</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
         <is>
           <t>Hundreds come from everywhere Just to see your face and touch the healer's hand Desperate, I push through the crowd If I could touch your clothes I could feel your power Come my way Please look And notice me Just to release my pain Just to know your name Come my way I'm out of touch I'm out of reach I've got the faith to believe Am I out of touch or out of reach What would it take for you to walk towards me I'm out of touch, out of reach But I'm running towards you and it's all I believe Come my way Just a touch</t>
         </is>
@@ -3007,9 +3264,12 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>18</v>
-      </c>
-      <c r="F86" t="inlineStr">
+        <v>19</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>Great is the Lord King Jesus See how His majesty is lifted high Great is the One who saves us Who is like our God, Lord I lift You up Age to age, always the same Who is like our God? Exalt the power of Your mighty name Who is like our God? King of Kings robed in glory Who is like our God? You rule the world with love and mercy Who is like our God?/Who is like our God? Chorus: Great is the Lord King Jesus See how His majesty is lifted high Great is the One who saves us Who is like our God, Lord I lift You up Destiny is in Your hands Who is like our God? Turn to You the hearts of men Who is like our God? You conquered death, suffered the cross Who is like our God? You gave Your life to save the lost Who is like our God?/Who is like ou God? (Chorus) Destiny is in Your hands Who is like our God? Turn to You the hearts of men Who is like our God? You conquered death, suffered the cross Who is like our God? You gave Your life to save the lost Who is like our God?/Who is like our God?</t>
         </is>
@@ -3037,9 +3297,12 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>18</v>
-      </c>
-      <c r="F87" t="inlineStr">
+        <v>19</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
         <is>
           <t>You are the sovereign "I am" Your name is holy You are the pure, spotless lamb Your name is holy (Repeat) You are the almighty One Your name is holy You are the Christ, God's own Son Your name is holy You are the sovereign "I am" Your name is holy You are the pure, spotless lamb Your name is holy Chorus: In Your name there is mercy for sin There is safety within, in Your holy name In Your name, there is strength to remain To stand in spite of pain In Your holy name You are the sovereign "I am" Your name is holy You are the pure, spotless lamb Your name is holy You are the almighty One Your name is holy You are the Christ, God's own Son Your name is holy (chorus) You are the sovereign "I am" Your name is holy You are the pure, spotless lamb Your name is holy</t>
         </is>
@@ -3067,9 +3330,12 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>19</v>
-      </c>
-      <c r="F88" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
         <is>
           <t>How deep the Father's love for us How vast beyond all measure That He should give His only Son To make a wretch His treasure How great the pain of searing loss, The Father turns His face away As wounds which mar the chosen One Bring many sons to glory Behold the Man upon a cross, My sin upon His shoulders Ashamed I hear my barking voice Call out among the scoffers It was my sin that held Him there Until it was accomplished His dying breath has brought me life I know that it is finished I will not boast in anything No gifts, no power, no wisdom But I will boast in Jesus Christ His death and resurrection Why should I gain from His reward? I cannot give an answer But this I know with all my heart His wounds have paid my ransom (repeat)</t>
         </is>
@@ -3097,9 +3363,12 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19</v>
-      </c>
-      <c r="F89" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
         <is>
           <t>Jesus, Jesus Holy and anointed One, Jesus Jesus, Jesus Risen and exalted One, Jesus Chorus: Your name is like honey on my lips Your spirit's like water to my soul Your word is a lamp unto my feet Jesus I love you, I love you Jesus, Jesus Holy and anointed One, Jesus Jesus, Jesus Risen and exalted One, Jesus (chorus)</t>
         </is>
@@ -3127,9 +3396,12 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>16</v>
-      </c>
-      <c r="F90" t="inlineStr">
+        <v>17</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>We're Thirsty We are thirsty</t>
         </is>
@@ -3157,9 +3429,12 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>17</v>
-      </c>
-      <c r="F91" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
         <is>
           <t>Come and fear the Lord And quake at his might Come and bow your knee And lift His banner high Jesus be glorified Jesus be glorified Jesus be glorified Jesus be glorified Come and fear the Lord And quake at his mights Come and bow your knee And lift His banner higher Jesus be glorified Jesus be glorified Jesus be glorified Jesus be glorified Let the nations sing Of the goodness of God And let the people bring Their lives to the cross Jesus be glorified Jesus be glorified Jesus be glorified Jesus be glorified Everyone will see the King of Kings Ruler of the earth and everything Everyone will worship Jesus be glorified Jesus be glorified Jesus be glorified Jesus be glorified</t>
         </is>
@@ -3187,9 +3462,12 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>15</v>
-      </c>
-      <c r="F92" t="inlineStr">
+        <v>16</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
         <is>
           <t>Sing to the Lord you His people Sing to the lord you His saints With strength and might He rules the nations Leading captives in His train Sing to the Lord you His people Sing to the Lord you His saints He makes the glory shine upon us We will never be the same Give thanks unto the Lord Call on His holy name Let the hearts of those who fear him Marvel at His wondrous ways Give thanks unto the Lord Join heaven's resounding praise Sing, shout and dance before Him Celebrate with songs of praise Chorus: Sing to the Lord you His people Sing to the lord you His saints With strength and might He rules the nations Leading captives in His train Sing to the Lord you His people Sing to the Lord you His saints He makes the glory shine upon us We will never be the same Give thanks unto the Lord Call on His holy name Let the hearts of those who fear him Marvel at His wondrous ways Give thanks unto the Lord Join heaven's resounding praise Sing, shout and dance before Him Celebrate with songs of praise (chorus)</t>
         </is>
@@ -3217,9 +3495,12 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>19</v>
-      </c>
-      <c r="F93" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
         <is>
           <t>I saw angels fall down At the glory of the Lord And as I raise my hands I see I saw angels fall down At the glory of the Lord And as I hit the ground I see And I fall down Afraid and shaking here And I fall down Perfectly safe in you I saw angels fall down At the glory of the Lord The hurt and the broken find rest here I saw angels fall down At the beauty of the Lord And as I kneeled I cried to know him And I fall down Afraid and shaking here And I fall down Perfectly safe in you I'm perfectly safe in you I'm perfectly safe in you Yeah........</t>
         </is>
@@ -3247,9 +3528,12 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>16</v>
-      </c>
-      <c r="F94" t="inlineStr">
+        <v>17</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
         <is>
           <t>Learning inside I will be safe with you tonight You cause the smile And the teardrops in my eyes Locked inside your every movement Will I stand or will I fall? Trapped inside of your walls of glory I am just as dead leaves fall Safe with you Safe with you Chaos in my head The whole universe is at rest When I'm in your arms Is when I feel the best Locked inside your creative being Whirling about your unfailing truth Attacked with power by ferocious love Salvation alone belongs to you Safe with you Safe with you Lifting up my voice To the God who really sees The God who is consumed With loving thoughts of me The screaming winds And the crashing of the oceans Shifting sands and the changing of the seasons As I stand in awe and wonder Nothing in the world has prepared me for you! Jesus, Jesus, I'm safe with you</t>
         </is>
@@ -3279,7 +3563,10 @@
       <c r="E95" t="n">
         <v>20</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>Sing to the Lord you His people Sing to the lord you His saints With strength and might He rules the nations Leading captives in His train Sing to the Lord you His people Sing to the Lord you His saints He makes the glory shine upon us We will never be the same Give thanks unto the Lord Call on His holy name Let the hearts of those who fear him Marvel at His wondrous ways Give thanks unto the Lord Join heaven's resounding praise Sing, shout and dance before Him Celebrate with songs of praise Chorus: Sing to the Lord you His people Sing to the lord you His saints With strength and might He rules the nations Leading captives in His train Sing to the Lord you His people Sing to the Lord you His saints He makes the glory shine upon us We will never be the same Give thanks unto the Lord Call on His holy name Let the hearts of those who fear him Marvel at His wondrous ways Give thanks unto the Lord Join heaven's resounding praise Sing, shout and dance before Him Celebrate with songs of praise (chorus)</t>
         </is>
@@ -3309,7 +3596,10 @@
       <c r="E96" t="n">
         <v>29</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
         <is>
           <t>"Shrouded in proof, You're the mystery You're the truth that lives within the world we see You're the hand that holds destiny And I can't pretend I don't know And I can't leave it alone (yeah,yeah) Chorus: You're the best kept secret in my generation The best kept secret of all time You're the best kept secret in my generation And I found you out Your the hope over the centuries You're the cosmic force that rules the galaxies You're the evidence that demands our belief And I can't live for myself I can't keep this all to myself (yeh, yeah) You're the best kept secret in my generation The best kept secret of all time You're the best kept secret in my generation And I found you out Let it out Let it out Let it out Let it out, yeah! And I can't pretned I don't know And I can't leave it alone (yeah, yeah) You're the best kept secret in my generation The best kept secret of all time You're the best kept secret in my generation And I found you out You're the best kept secret in my generation The best kept secret of all time You're the best kept secret in my generation And I found you out</t>
         </is>
@@ -3339,7 +3629,10 @@
       <c r="E97" t="n">
         <v>20</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
         <is>
           <t>You take my rights away You take control, no stopping You You take my rights away I can take it (oh, oh) See me let it go You are in control Suffer as we grow And we say - we say we don't want to Holding nothing You take everything You're worth anything at all Anything at all You take my rights away You take control, no stopping You You take my rights away I can take it (oh, oh) You define me With your identity Lose my life in you I can take - I'll take what it costs me You take my rights away You take control, no stopping You You take my rights away I can take it (oh, oh)</t>
         </is>
@@ -3369,7 +3662,10 @@
       <c r="E98" t="n">
         <v>26</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>"I, I'm invincible I'm indestructible It's my destiny I, I'm invincible I'm unshakable Through the truth in my soul Chorus: You know you just can't kill a man when he's dead You know the spirit survives (invincible) You can't stop the advance of the Kingdom to come You know the truth is alive (invincible) To be invincible Is unattainable Without sacrifice Feel, feel the birth inside The life that cannot die Are you invincible (Chorus) Invincible-invincible You know you can't kill a man when he's dead You know you can't (Chorus) repeat You know you can't kill a man when he's dead"</t>
         </is>
@@ -3397,9 +3693,12 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23</v>
-      </c>
-      <c r="F99" t="inlineStr">
+        <v>24</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
         <is>
           <t>Still, soft, quietly spoken voice That persistently calls my name And quickens my heart to come And I come And I rest in the shelter of Your love And I rest in the wonder of Your Grace And I rest in the shelter of Your love And I rest in the wonder of You Embraced in the promise of You Is rest for the weary soul Releasing all that is mine I reach for your And I rest in the shelter of Your love And I rest in the wonder of Your Grace And I rest in the shelter of Your love And I rest in the wonder of You Take all the old and You make it new Everything I give to you You're the hope that can pull me through Hallelujah And I rest in the shelter of Your love And I rest in the wonder of Your Grace And I rest in the shelter of Your love And I rest in the wonder of You</t>
         </is>
@@ -3429,7 +3728,10 @@
       <c r="E100" t="n">
         <v>20</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
         <is>
           <t>Come on, come on, come on to the future Come all, come all the way Come on, come on, come on to the future The future is arranged Can you see it You know the future's in my sight Invisible kingdom Collides with space and time The universe has been ordered, yeah Come on, come on, come on to the future Come all, come all the way Come on, come on, come on to the future The future is arranged Stepping over Stepping in the age to come Can you feel it Unstoppable power The universe has been ordered, yeah Come on, come on, come on to the future Come all, come all the way Come on, come on, come on to the future The future is arranged Hold tight, hold on The future's on its way Run hard, run strong The future's on its way It can't stop, it can't stop Here it comes Straight for you, head on Here it comes Come on, come on, come on to the future Come all, come all the way Come on, come on, come on to the future The future is arranged</t>
         </is>
@@ -3457,9 +3759,12 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21</v>
-      </c>
-      <c r="F101" t="inlineStr">
+        <v>22</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
         <is>
           <t>You're powerful You're unshakeable You're powerful You're unshakeable You wreck me You rule me You turn me upside down (ya know) Your glory Pervades me You conquer without a sound You're powerful You're unshakeable You're powerful You're unshakeable You shake me You break me You make me whole again (ya know) Your nature Unchanging All fails, but You remain You're powerful You're unshakeable You're powerful You're unshakeable And when the ground begins to shake And when my courage starts to fade I let my fears go When You Breathe The lifeless rise up Invade me With violence And heal me You're powerful You're unshakeable You're powerful You're unshakeable You're mighty You're the ultimate powerful</t>
         </is>
@@ -3487,9 +3792,12 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19</v>
-      </c>
-      <c r="F102" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
         <is>
           <t>Learning again that I am not my own Crawling back to where I belong Caught in between knowing You and trusting me Come on take a ride out of the in-betweens Now I know I need you When I can't see, I will trust You And when I get weak, I trust You And when I just can't let it go I trust that You are in control Shelter me so I can find some peace Grabbing hold of You is letting go of me It's easy when I remember I possess all that lays beyond my grasp You power commands the weight off my back Now I know I need you When I can't see, I will trust You And when I get weak, I trust You And when I just can't let it go I trust that You are in control Now I know I trust you</t>
         </is>
@@ -3517,9 +3825,12 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>18</v>
-      </c>
-      <c r="F103" t="inlineStr">
+        <v>19</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
         <is>
           <t>I am yours; you are mine Believe in you, friend of mine You're not fading in my eyes Could you stay? Could you stay? We must hold on to our faith in each other We must let go of our pain, yeah I said We must hold on to our faith in each other Gotta still believe in each other Time is short to live the life Don't give up, friend of mine Strength to rise on more time Could you stand? Could you stand? We must hold on to our faith in each other We must let go of our pain, yeah I said We must hold on to our faith in each other Gotta still believe in each other It's ok to feel weak It's ok to fall down It's ok to loose sight But we've gotta believe and stand together We must hold on to our faith in each other We must let go of our pain, yeah I said We must hold on to our faith in each other Gotta still believe in each other</t>
         </is>
@@ -3547,9 +3858,12 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20</v>
-      </c>
-      <c r="F104" t="inlineStr">
+        <v>21</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
         <is>
           <t>The fire breathes The fire breathes It grows and grows and seems to have no end The fire breathes The fire feeds Search and search, consuming everything it sees It lives inside of me Burning, burning, burning (yeah, yeah, yeah) It lives inside of me The fire breathes The fire breathes The fire breathes The beauty in its violence brings me peace The fire breathes The fire breeds It lives in hearts, causing strength to believe It lives inside of me Burning, burning, burning (yeah, yeah, yeah) It lives inside of me The fire breathes The fire breathes And I need Life in this dead man to make me free It lives inside of me Burning, burning, burning (yeah, yeah, yeah) It lives inside of me The fire breathes</t>
         </is>
@@ -3577,9 +3891,12 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>19</v>
-      </c>
-      <c r="F105" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
         <is>
           <t>Can't help but speak of what I've seen and heard I understand just what the purpose is Uncover peace; uncover hope for all to see And I can't keep quiet, gotta shout it out to You Chorus: Gotta say it loud Gotta say it loud Gotta say it loud Gotta shout it out (repeat) Come right away to find the joy I've found Don't hesitate to give up everything Discover peace; discover hope, meaning of life I've got to say it, gotta shout it out to You CHORUS(repeat) Can't keep it, keep it all to myself Can't hold it, can't hold it down Can't shut it, can't shut it out Can't keep me silent CHORUS(repeat)</t>
         </is>
@@ -3607,9 +3924,12 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19</v>
-      </c>
-      <c r="F106" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
         <is>
           <t>You love me like no other You have been the Savior of my life You know my weekness You see me beautiful - through your eyes.... Chorus: And you the one that I need, The one who makes me complete. And your the one who is strong, when I am crying and weak. And your the one that I love, the one who never gives up. And your the one that I - need your the one your the one You love me like no other, You make it easy for my heart to beleive. And when Im drowning, Your all the way to rescue me..... (Repeat Chorus) I carry all with out knowing ow, I never NEED how Im needing now... He loves me like no other.......Your the ONE (Repeat Chorus)</t>
         </is>
@@ -3637,9 +3957,12 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17</v>
-      </c>
-      <c r="F107" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
         <is>
           <t>It's so urgent; it's so desperate I can feel it in my bones (yeah) To find a shovel and start digging Under the water, bury myself Chorus: YouÂ¹re in my brain In my brain The life inside is breaking out YouÂ¹re in my brain In my brain The life inside is breaking out It's getting stronger; I can't contain it It's like a fire in my bones (yeah) It's taking over, recreating Transforming my mind (yeah) CHORUS You're in my mind, in my mind Breaking out (repeat) CHORUS (repeat)</t>
         </is>
@@ -3667,9 +3990,12 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22</v>
-      </c>
-      <c r="F108" t="inlineStr">
+        <v>23</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
         <is>
           <t>Am I a man who knows how to love When you hate what you fear the most I'll wash your feet as you spit in my face Hey you, I love your soul I"m gonna love when you hate You can't outrun or escape this liquid My life poured out like water I'm gonna drown you with maddening forgiveness Hey you, I love your soul Chorus: I can't depend on your hate to define my love Am I strong enough to love your soul Love doesn't care to receive what it gives Bleeding compassion to extreme Love stretches out to die for its enemies Hey you, I love your soul 2nd Chorus: I can't depend on your hate to define my love Am I strong enough to love your soul No bounds on the deep, no bounds on the wide Am I deep enough to love your soul God I want to swim in the deep of you God in you I'm strong enough, strong enough, strong enough, strong enough (Repeat 2nd chorus)</t>
         </is>
@@ -3697,9 +4023,12 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>18</v>
-      </c>
-      <c r="F109" t="inlineStr">
+        <v>19</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
         <is>
           <t>Jesus pure truth Recollect my mind (ya-di-da-da-da) Hurt that I push down Shows my anger why I can't go underground Everything I bury gets exhumed I gotta dig deeper And all the things I bury gets exhumed I gotta dig deeper I must get used To strength out of weakl (ya-di-da-da-da) Becoming by what I give Not by what I can keep Exposed before you Everything I bury get exhumed I gotta dig deeper And all the things I bury get exhumed I gotta dig deeper How can I hide deeper How do I fly deeper And everything I bury gets exhumed And all the things I bury gets exhumed</t>
         </is>
@@ -3729,7 +4058,10 @@
       <c r="E110" t="n">
         <v>23</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
         <is>
           <t>I wanna be locked in a cage I wanna be strapped in a chair I wanna be where you are If my insanity comes Wrapped up inside your... I wanna break my legs In case a thought to escape Keep the hammer out of my reach0 If my pounding impulse comes Wrapped up inside your arms Locked up inside you Hold me down cause I want to know you You bring calm to my rage You are life and I'm thirsting for you Hold me, hold me locked in a cage I love to be caught by you I wanna be trapped in your arms Your cage is rest to my bones Your cage is peace to my soul Wrapped up inside your arms Locked up inside you Hold me down cause I want to know you You bring calm to my rage You are life and I'm thirsting for you Hold me, hold me locked in a cage Wrapped up inside your arms Wrapped up inside your arms I'm inside your arms I'm inside your arms Hold me down cause I want to know you You bring calm to my rage You are life and I'm thirsting for you Hold me, hold me locked in a cage Hold me down cause I want to know you You bring calm to my rage You are life and I'm thirsting for you Hold me, hold me locked in a cage</t>
         </is>
@@ -3759,7 +4091,10 @@
       <c r="E111" t="n">
         <v>19</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
         <is>
           <t>I walk through the desert, hide from the sun All that I desire is You Occasional water cools my thirst All I that I desire is You I don't want to live dying on the inside I breathe so softly, don't feel too content Apathy whispers and makes me think Am I just another man whose time went fast What does it take to be called great I don't want to live dying on the inside Because Your love is better than life Because Your voice heals me inside Because my soul is satisfied Because Your love keeps me alive I cannot be silent, IÃ­m crying out My soul is cold, my heart is numb I break from my old self and step into You You complete what was never enough Because Your love is better than life Because Your voice heals me inside Because my soul is satisfied Because Your love keeps me alive Keeps me alive with the strength to speak This generation is dying to see Who You are and how You free Come Lord Jesus come I've seen lots of dead men walking around Make my heart alive Because Your love is better than life Because Your voice heals me inside Because my soul is satisfied Because Your love keeps me alive</t>
         </is>
@@ -3787,9 +4122,12 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21</v>
-      </c>
-      <c r="F112" t="inlineStr">
+        <v>22</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
         <is>
           <t>All the things my feet thought to be firm Are falling with urgency Tearing back my false sense of security Some say things change, nothing stays the same But the sweetness in my ears Safe in your arms speak the words I love to hear You have been more faithful than the morning sun You have been more faithful than knowing the night will come You have been more faithful than the changing of seasons All things I thought that I used to know Are falling down again Our disillusionment is how we grow Some say things change, nothing stays the same In a world of inconsistency When everything's a lie, What can cause my heart to believe You have been more faithful than the morning sun You have been more faithful than knowing the night will come You have been more faithful than the changing of seasons You have been more faithful than the morning sun You have been more faithful than knowing the night will come You have been more faithful than the morning sun You have been more faithful than knowing the night will come You have been more faithful than the changing of seasons</t>
         </is>
@@ -3817,9 +4155,12 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>18</v>
-      </c>
-      <c r="F113" t="inlineStr">
+        <v>19</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
         <is>
           <t>Everything I am is resting in my jar Holding nothing back from entering my jar My hopes and dreams I put into my jar You find my jar as beautiful Deep the sorrow and pain I put in my jar Times seem so hard I put them in my jar My violence burns YouÃ­ve consumed my heart Desperation ends with desertion in A moment of intimacy my life explained and unpronounced Falling at Your feet I kneel perpetually Staring at my jar I proceed to pour it out The loss and gain goes on and on and on You're in the blood and you're all around Beauty speaks without a sound Raging flood, YouÃ­re the peace I need Down, pour down All my fears and needs I put in my jar I'd give everything to know who You are The open space around Your feet Becomes my resting place, my destiny The loss and gain goes on and on and on You're in the blood and you're all around Beauty speaks without a sound Raging flood, YouÃ­re the peace I need Down, pour down (repeat) And all You're, is all I need You're all I need A moment of intimacy my life explained and unpronounced Falling at Your feet I kneel perpetually Staring at my jar I proceed to pour it out The loss and gain goes on and on and on You're in the blood and you're all around Beauty speaks without a sound Raging flood, You're the peace I need Down, pour down (repeat) You're in my blood, in my blood All You are, is all I need, is all I need</t>
         </is>
@@ -3849,7 +4190,10 @@
       <c r="E114" t="n">
         <v>18</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
         <is>
           <t>Thought You'd put me in a box Thought You'd push me into a clump Make me smaller than I was before Though You'd press me Ã± mold me in Took a step and felt the pressure on Exploding me into open space Now You pull me apart I'm suspended in You Stretch me bigger Reveal Yourself to be The frame that holds me tightly in center Pulled into suspension in the middle of You Let what was hidden be reveal Walls of fear broken wide Infinite Jesus spread all in You Towering over the horizons Gushing with surrender in Your hands Now You pull me apart I'm suspended in You Stretch me bigger Reveal Yourself to be The frame that holds me tightly in center Pulled into suspension in the middle of You</t>
         </is>
@@ -3877,9 +4221,12 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>17</v>
-      </c>
-      <c r="F115" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
         <is>
           <t>Take my strength, take my pride, Take my selfishness away Take my rights, take ambition, Capture me, make me a slave Break the walls, break my bones, Break my hardened heat Rip my rule, rip my will, Rip independency apart Breathe Your life, Breathe Your love, Breathe You breath and IÃ­m sustained Take my hate, take my hurt, Express healing to my pain Take my flesh in all its arrogance, my stability away Take my life, bring fire, Ã«til only You remain Laid out on my face (yea) My tongue hanging out to taste (yea) Of You and Your death (yea) And to know Your name (yea) Accept my gifts, take my crowns, I spread them at your feet When I bleed, I bleed with joy as I taste Your suffering Flood life, flood peace, speak acceptance to my shame Allow to kneel, allow to praise, Give the right to speak Your name Laid out on my face (yea) My tongue hanging out to taste (yea) Of You and Your death (yea) And to know Your name (yea) (repeat) Laid out on my face Wanting to know your name (repeat)</t>
         </is>
@@ -3909,7 +4256,10 @@
       <c r="E116" t="n">
         <v>18</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
         <is>
           <t>Things are coming down Things are coming down I can tell you Beautiful the sound Of things coming 'cause I heard him say Division is coming down I saw peace on a white horse riding Love is spreading around The most contagious disease we've ever known I will drink from the well of the One who gives me life I will eat of the bread of the One sacrifice I will breathe of the breath of the body of God I will dive to the depths and raise a new man Racism is coming down Not from law but a change in perception Revival's spreading around I hear the sound of reapers already say I will drink from the well of the One who gives me life I will eat of the bread of the One sacrifice I will breathe of the breath of the body of God I will dive to the depths and raise a new man Our knees are going down To the One who brings far to my every bone His Kingdom's reigning down Who can stop the plans of the Lord I say I will drink from the well of the One who gives me life I will eat of the bread of the One sacrifice I will breathe of the breath of the body of God</t>
         </is>
@@ -3937,9 +4287,12 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>17</v>
-      </c>
-      <c r="F117" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
         <is>
           <t>Talking to God Hearing what he wants He moves in violence I stand in silence Who can question You, who can fathom You? In your presence, who can stand? Worlds spin around and kings crumble down There's no escape what YouÃ­ve planned Winds approaching, clouds are forming God in his power Is swirling around me Calling me, and you know my name So jump in or be taken, yea I can't Run long enough, or go far enough To escape the screaming rain It's alright It's alright Jump in the whirlwind I'm letting go (repeat) My world's at stake I want to break Stop the striving Start the dying I'm thrown into it It's so imminent There's no arguing what You say I gotta keep fanning it, I keep fanning it I keep fanning the fire to flames It's alright It's alright Jump in the whirlwind I'm letting go (repeat twice) Master and Savior, Sustainer and Creator You move in power And winds and thunder It's alright It's alright Jump in the whirlwind Letting go Letting go - I'm letting go</t>
         </is>
@@ -3967,9 +4320,12 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>17</v>
-      </c>
-      <c r="F118" t="inlineStr">
+        <v>18</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
         <is>
           <t>I thought distinctly Different from now Wonder dramatically All about everything always All my pushing Becomes nothing I shake the fear I used to compensate For what I couldn't achieve I conquered dreams Forgetting what they were All my pushing Becomes nothing All my falling Is into You Jump over on (Everybody now) Dive over in (C'mon yea-yea) 'Cause it's just not enough To stand at the edge (You gotta dive over in) Now I am voiceless Senseless at Your mercy You draw me wildly All my remainder All my pushing Becomes nothing All my falling Is into You Jump over on Dive over in 'Cause it's just not enough To stand at the edge (you gotta dive over in) All my pushing Becomes nothing All my falling Is into You Jump over on Dive over in 'Cause it's just not enough To stand at the edge (you gotta dive over in)</t>
         </is>
@@ -3999,7 +4355,10 @@
       <c r="E119" t="n">
         <v>19</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
         <is>
           <t>Hanging on this post In my dirty clothes Try to concentrate on You But I keep forgetting Safe enough to not let go Scared enough to not release Open up to drink the wind You tear me up when you come in Take me down, shake me out Give me a brain, that I might know You better Take me down, shake me out Give me a brain, that I might know You better Hanging in the sun Waiting for the rain Saw a field catch on fire I caught myself just watching Safe enough to not let go Scared enough to not release Open up to drink the wind You tear me up when you come in Take me down, shake me out Give me a heart, that I might love You better Take me down, shake me out Give me a heart, that I might love You better Hanging on a post Just next to Yours I want to curse and spit I weep aloud at Your mercy Take me down, shake me out Give me a life, that I might serve You better Take me down, shake me out Give me a life, that I might serve You better</t>
         </is>
@@ -4029,7 +4388,10 @@
       <c r="E120" t="n">
         <v>27</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
         <is>
           <t>Looking on the sad times, the guilt and all the shame I have learned to submit my existing hurts and pains All of the grief I have learned to set aside Cause I am I am I am I am Feeling underooted, feeling undermined Can this grace of God cover me this time? And when I feel the pain I know why I feel strange And when I hear the rooster crow, I am ashamed Jesus os the cross and this cross upon my back I have learned to submit then I whine about my lack Sometimes I drop my cross, deserve a little rest That's when I run to You and I nail Your feet and Your wrist I'm feeling underooted, feeling undermined Can this grace of God cover me this time? And when I feel the pain I know why I feel strange And when I hear the rooster crow I am ashamed And when I feel the pain I know why I feel strange And when I hear the rooster crow I am ashamed And do You really know my soul even after I hated You? And do you really know my name, can I really come to You? And are You really more faithful than the changing of the seasons and the morning sun? And do You really know my name, can I really come to You I can, I can, I can, I can, I can, I can, I can, I can I can, I can, I can, I can, I can, I can, I can, I don't care If the rooster crows, if the rooster crows If the rooster crows, if the rooster crows (I can)</t>
         </is>
@@ -4057,9 +4419,12 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30</v>
-      </c>
-      <c r="F121" t="inlineStr">
+        <v>31</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
         <is>
           <t>I'm sitting with my heart out on the table I'm doing a face to face with God He picked up my heart and said, What you want me to do with this? I just blinked my eyes no smile, no laugh, no tears No shrugging my shoulders It crossed my mind, Yeah I got an idea You could take my heart and put it in a padlocked box What if they grab too hard or smash it, or throw it down I'm scared of being hurt, I just want to live, live a happy life! You want to, you want to Soak my heart in gasoline Light a match and consume me Soak my pride in gasoline all of you and none of me I was reminded my heart reeks of gasoline It bears the mark of a slave committed to life Anyone who wants it Will have to grab it from a real big God try to touch me, You'll be consumed, youÃ­ll be consumed I want to, I want to I'm sitting here with my heart out on the table Next to a bloody mess that was once a man's heart I looked at God and said, What do you want me to do with this? He said, Already done, already done, that heart was Jesus</t>
         </is>
@@ -4087,9 +4452,12 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24</v>
-      </c>
-      <c r="F122" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
         <is>
           <t>I ask him When will I Be free he Said I am Asking him When will I Change he said No matter now No matter now Saturn has a ring around it You can never see it with your eyes Saturn has a ring around it Many moons know this to be true You ask him How can you Be real he Said you'll be Knowing him How you do Now he says Rest in this Rest in this Saturn has a ring around it You can never see it with your eyes Saturn has a ring around it Many moons know this to be true Heaven has a ring around it The angels sing a song over you Heaven has a ring around you If you don't see it know that it's true</t>
         </is>
@@ -4117,9 +4485,12 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>20</v>
-      </c>
-      <c r="F123" t="inlineStr">
+        <v>21</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
         <is>
           <t>I want to pleasure in your sight I want to subscribe to your delight So hold on and see what I do for you Oh by the way, did you see me dressed in my beautiful robe? My head was bleeding so red But all the thorns in my crown, the rose blended Instead with my beautiful robe carries on, I'll carry on I cut down a tree said, Man would you look at me I stuck my head in a thorn bush Man I was deceived Oh my brother, Your hands are full of sores But God blessed you brother, My nails are longer than yours I was crucified with Christ But how come IÃ¢m not dead God gave me a cross But I made my own instead My beautiful carries on, IÃ¢ll carry on I cut down the tree, I nailed myself to the wood I screamed in agony, Cause the glory wasnÃ¢t so good I fell to my knees and I remember The words of God pierced so hard, Your righteousness is like filthy rags And I fell to my knees and said, My filthy robe</t>
         </is>
@@ -4149,7 +4520,10 @@
       <c r="E124" t="n">
         <v>20</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
         <is>
           <t>When I was a young boy I saw a vision of your face I made a my first promise to you Yeah ya know it took some time But I love you now I realize I am a promise maker I am a promise breaker On the road to faithfulness I sometimes forget your name But I can still see your face And time after time I hear you calling my name I gotta name for me, I gotta a name, I gotta name for me, I gotta name I am the promise maker I am the promise breaker On my knees for the last time I could rip my heart out every day I made my last promise to you Yeah I could cry I could cry a million tears a day And all I would hear you say is You are the promise taker You are the promise taker You are the promise taker You put them in your promise blender You took me, and you own me And you bought me, and you love me Promise keeper, keeper, keeper</t>
         </is>
@@ -4177,9 +4551,12 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>21</v>
-      </c>
-      <c r="F125" t="inlineStr">
+        <v>22</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>We take a walk in the garden We share the fruits of life We live beneath this canopy Why did we take that bite? We cover up our shame We walk in black and white We turn this ground for hunger Why did we take that bite? Paint me with an endless sunrise, Paint me Paint me open eyes, Paint me with the color of love You took a walk on the planet You gave us shad and light You create mood and substance How can I can take a bite? Paint me with an endless sunrise, Paint me Paint me open eyes, Paint me with the color of love Paint me, mark me up, In these frail, dot-to-dot lines Color me from one red stream From which all others flow Take my black and white and yellow Brown and pink and pain and sorrow Take my black and white and yellow Brown and pink and hate and sorrow Paint me with an endless sunrise, Paint me Paint me open eyes, Paint me with the color of love</t>
         </is>
@@ -4209,7 +4586,10 @@
       <c r="E126" t="n">
         <v>21</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
         <is>
           <t>Learning inside I will be safe with you tonight You cause the smile And the teardrops in my eyes Locked inside your every movement Will I stand or will I fall? Trapped inside of your walls of glory I am just as dead leaves fall Safe with you Safe with you Chaos in my head The whole universe is at rest When I'm in your arms Is when I feel the best Locked inside your creative being Whirling about your unfailing truth Attacked with power by ferocious love Salvation alone belongs to you Safe with you Safe with you Lifting up my voice To the God who really sees The God who is consumed With loving thoughts of me The screaming winds And the crashing of the oceans Shifting sands and the changing of the seasons As I stand in awe and wonder Nothing in the world has prepared me for you! Jesus, Jesus, I'm safe with you</t>
         </is>
@@ -4237,9 +4617,12 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>19</v>
-      </c>
-      <c r="F127" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
         <is>
           <t>You try to answer slow You put your head down low CÃ­mon take your time Try to choose the most believable lie You try to walk away And tell me everything's okay You think youÃ­re are saved by words But you're drowning in the absurd But to me it's no big surprise You thought I never saw your eyes Departed with a smile Just like walking down the isle You shook the preacher's hand But your smile can't hide your sin Your eyes tell me what you feel You eyes tell me what is real Nobody's perfect is your prediction Your life is proving your conviction! To me it's no big surprise I saw the emptiness in your eyes</t>
         </is>
@@ -4267,9 +4650,12 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>20</v>
-      </c>
-      <c r="F128" t="inlineStr">
+        <v>21</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>I stand here closed and open Praying for the summer rains Reaching in to pull back the curtains Ruling in this desolate land I will let me go My walls melt away You have no boundaries You cross my borders You have no boundaries You crash my borders I lie here clothed and naked Dam bursts to cool ocean waves Black water cleans the highway Resting in the washing away I will let me go My walls melt away You have no boundaries You cross my borders You have no boundaries You crash my borders You are more than all that is outside of me You are more than that which is inside of me You have no boundaries I have no borders from you You have no boundaries I have no borders</t>
         </is>
@@ -4297,9 +4683,12 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>19</v>
-      </c>
-      <c r="F129" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
         <is>
           <t>Here I lie again inside this broken body Wrestle against the tree, my muscles aching To get up now is death, to die is to really live Flesh is restless, twisting, spasms in my back increasing Splinter me, splinter me My heart, my head Splinter me Here I think again to try to solve this puzzle What is not yours I donÂ¹t want, my mind aching To reconstruct my thoughts or let it blow away You are all-knowing, changing, yeah youÂ¹re killing me Splinter me, splinter me My heart, my head Splinter me Jesus whispered softly, Jesus shouted it out His kingdom body coming But we nail him up and hate each other Splinter me, splinter me My broken body Splinter me Splinter me, splinter me My broken body Splinter me</t>
         </is>
